--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>42.07355435930148</v>
+      </c>
+      <c r="C2">
+        <v>35.00972282562183</v>
+      </c>
+      <c r="D2">
+        <v>7.599391945473206</v>
+      </c>
+      <c r="E2">
+        <v>31.57040179350983</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.961064174238411</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>18.96962157987537</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>38.58667748148741</v>
+      </c>
+      <c r="C3">
+        <v>32.06591871286646</v>
+      </c>
+      <c r="D3">
+        <v>6.978317896901906</v>
+      </c>
+      <c r="E3">
+        <v>28.83338142179413</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1.991608863495361</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.44479151600339</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>36.41566038942571</v>
+      </c>
+      <c r="C4">
+        <v>30.23593038218323</v>
+      </c>
+      <c r="D4">
+        <v>6.589939657624775</v>
+      </c>
+      <c r="E4">
+        <v>27.14400595379279</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.009906457660056</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.13555888798164</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>35.52028625097375</v>
+      </c>
+      <c r="C5">
+        <v>29.48171253840462</v>
+      </c>
+      <c r="D5">
+        <v>6.429358406582406</v>
+      </c>
+      <c r="E5">
+        <v>26.44999139045134</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.017295701012853</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>18.01225766048633</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>35.37088996854242</v>
+      </c>
+      <c r="C6">
+        <v>29.35589354388303</v>
+      </c>
+      <c r="D6">
+        <v>6.402540683500391</v>
+      </c>
+      <c r="E6">
+        <v>26.33433128802915</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.018519801349948</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.99193381575789</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>36.40363177304557</v>
+      </c>
+      <c r="C7">
+        <v>30.22579630147841</v>
+      </c>
+      <c r="D7">
+        <v>6.587783999898941</v>
+      </c>
+      <c r="E7">
+        <v>27.13467264965869</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.010006328931805</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.13388565133302</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>40.87536023990668</v>
+      </c>
+      <c r="C8">
+        <v>33.99740520843736</v>
+      </c>
+      <c r="D8">
+        <v>7.386332810734254</v>
+      </c>
+      <c r="E8">
+        <v>30.62618322963217</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.971723732044517</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.78557023643991</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>49.61233386771281</v>
+      </c>
+      <c r="C9">
+        <v>41.40229600477375</v>
+      </c>
+      <c r="D9">
+        <v>8.931563609261323</v>
+      </c>
+      <c r="E9">
+        <v>37.62674505187181</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.889898680190225</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.20420348264143</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>56.50938298210795</v>
+      </c>
+      <c r="C10">
+        <v>47.2991771915889</v>
+      </c>
+      <c r="D10">
+        <v>10.13681509624671</v>
+      </c>
+      <c r="E10">
+        <v>43.41600043910524</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.818169076195391</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.42331248377577</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>60.0085104854968</v>
+      </c>
+      <c r="C11">
+        <v>50.3154378933264</v>
+      </c>
+      <c r="D11">
+        <v>10.74220391036057</v>
+      </c>
+      <c r="E11">
+        <v>46.48781425584235</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.779135051695906</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>22.06366195926448</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>61.43862950007753</v>
+      </c>
+      <c r="C12">
+        <v>51.55410986580547</v>
+      </c>
+      <c r="D12">
+        <v>10.98817703836814</v>
+      </c>
+      <c r="E12">
+        <v>47.77778447436777</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.762632163119155</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>22.32818838524966</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>61.12439429922598</v>
+      </c>
+      <c r="C13">
+        <v>51.28162007964671</v>
+      </c>
+      <c r="D13">
+        <v>10.9342099808505</v>
+      </c>
+      <c r="E13">
+        <v>47.49241426045211</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.766286484260031</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>22.26995375623294</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>60.12353458800075</v>
+      </c>
+      <c r="C14">
+        <v>50.41492834784135</v>
+      </c>
+      <c r="D14">
+        <v>10.76202110556367</v>
+      </c>
+      <c r="E14">
+        <v>46.5907557982745</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.777819806017549</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>22.08488707697552</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>59.52673385844724</v>
+      </c>
+      <c r="C15">
+        <v>49.89897200006696</v>
+      </c>
+      <c r="D15">
+        <v>10.65913864924622</v>
+      </c>
+      <c r="E15">
+        <v>46.05810949874855</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.784621286699164</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.97486704253143</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>56.29140135328663</v>
+      </c>
+      <c r="C16">
+        <v>47.11189130612012</v>
+      </c>
+      <c r="D16">
+        <v>10.09895132939567</v>
+      </c>
+      <c r="E16">
+        <v>43.22811803957356</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.82053965024852</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.38381678722537</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>54.4234225984553</v>
+      </c>
+      <c r="C17">
+        <v>45.50962162506201</v>
+      </c>
+      <c r="D17">
+        <v>9.773826418290362</v>
+      </c>
+      <c r="E17">
+        <v>41.63267456909968</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.840569906208412</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>21.04763269244513</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>53.37856787804758</v>
+      </c>
+      <c r="C18">
+        <v>44.61535645682929</v>
+      </c>
+      <c r="D18">
+        <v>9.591481488752256</v>
+      </c>
+      <c r="E18">
+        <v>40.75087004875557</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.851555620989022</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.86152188666568</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>53.02895556191768</v>
+      </c>
+      <c r="C19">
+        <v>44.31642840111723</v>
+      </c>
+      <c r="D19">
+        <v>9.530393970471634</v>
+      </c>
+      <c r="E19">
+        <v>40.45739075256594</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.855197127045446</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.79958482443977</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>54.61897807250114</v>
+      </c>
+      <c r="C20">
+        <v>45.67714452216797</v>
+      </c>
+      <c r="D20">
+        <v>9.807916411571355</v>
+      </c>
+      <c r="E20">
+        <v>41.79852636991187</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.838496579240969</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>21.08262618602161</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>60.41392672697488</v>
+      </c>
+      <c r="C21">
+        <v>50.66620736098357</v>
+      </c>
+      <c r="D21">
+        <v>10.81202641565294</v>
+      </c>
+      <c r="E21">
+        <v>46.85125769030351</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.77448997911603</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>22.13851403877477</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>64.91092554137433</v>
+      </c>
+      <c r="C22">
+        <v>54.57840559780739</v>
+      </c>
+      <c r="D22">
+        <v>11.58113393608053</v>
+      </c>
+      <c r="E22">
+        <v>51.0142097551469</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.721153927572297</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>23.15735191993651</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>62.40429422483572</v>
+      </c>
+      <c r="C23">
+        <v>52.39267336116096</v>
+      </c>
+      <c r="D23">
+        <v>11.15372366776821</v>
+      </c>
+      <c r="E23">
+        <v>48.66200305210384</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.751301039235613</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>22.50748463333154</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>54.53047987172688</v>
+      </c>
+      <c r="C24">
+        <v>45.60132634669214</v>
+      </c>
+      <c r="D24">
+        <v>9.792490559817043</v>
+      </c>
+      <c r="E24">
+        <v>41.72343790855142</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.839435536120552</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>21.0667838543453</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>47.2155287915443</v>
+      </c>
+      <c r="C25">
+        <v>39.36493180684818</v>
+      </c>
+      <c r="D25">
+        <v>8.509593758642154</v>
+      </c>
+      <c r="E25">
+        <v>35.67646323307039</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.913310617192132</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.79868713976745</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.07355435930148</v>
+        <v>11.86037067423933</v>
       </c>
       <c r="C2">
-        <v>35.00972282562183</v>
+        <v>8.832854358064198</v>
       </c>
       <c r="D2">
-        <v>7.599391945473206</v>
+        <v>7.073135082200037</v>
       </c>
       <c r="E2">
-        <v>31.57040179350983</v>
+        <v>14.25278956199853</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.961064174238411</v>
+        <v>47.19130167311872</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.09965207719222</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>22.58585272363754</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.46781384462657</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.58104066133301</v>
       </c>
       <c r="N2">
-        <v>18.96962157987537</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.58667748148741</v>
+        <v>11.07716441778108</v>
       </c>
       <c r="C3">
-        <v>32.06591871286646</v>
+        <v>8.216686459114724</v>
       </c>
       <c r="D3">
-        <v>6.978317896901906</v>
+        <v>6.575977265018515</v>
       </c>
       <c r="E3">
-        <v>28.83338142179413</v>
+        <v>13.38214500227731</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.991608863495361</v>
+        <v>45.28875886539129</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.83078775650876</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>22.10027721126938</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.75346423884621</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.60210599939498</v>
       </c>
       <c r="N3">
-        <v>18.44479151600339</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.41566038942571</v>
+        <v>10.57062222863949</v>
       </c>
       <c r="C4">
-        <v>30.23593038218323</v>
+        <v>7.818867062068882</v>
       </c>
       <c r="D4">
-        <v>6.589939657624775</v>
+        <v>6.265659372271617</v>
       </c>
       <c r="E4">
-        <v>27.14400595379279</v>
+        <v>12.83201945989166</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.009906457660056</v>
+        <v>44.11838100897306</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.67199214343843</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.81152725848358</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.29293787405969</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.97095816923532</v>
       </c>
       <c r="N4">
-        <v>18.13555888798164</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.52028625097375</v>
+        <v>10.35770069738891</v>
       </c>
       <c r="C5">
-        <v>29.48171253840462</v>
+        <v>7.651784751885327</v>
       </c>
       <c r="D5">
-        <v>6.429358406582406</v>
+        <v>6.151666033336403</v>
       </c>
       <c r="E5">
-        <v>26.44999139045134</v>
+        <v>12.60407887829118</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.017295701012853</v>
+        <v>43.64136661613917</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13.60885646155917</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.69623028351543</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.09973865551141</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.7061159731353</v>
       </c>
       <c r="N5">
-        <v>18.01225766048633</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.37088996854242</v>
+        <v>10.32195120257455</v>
       </c>
       <c r="C6">
-        <v>29.35589354388303</v>
+        <v>7.623738944528574</v>
       </c>
       <c r="D6">
-        <v>6.402540683500391</v>
+        <v>6.132599052719282</v>
       </c>
       <c r="E6">
-        <v>26.33433128802915</v>
+        <v>12.56600782380464</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.018519801349948</v>
+        <v>43.56216941414841</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13.59846773335789</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.67722873228567</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.06732366010653</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.66167528577865</v>
       </c>
       <c r="N6">
-        <v>17.99193381575789</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.40363177304557</v>
+        <v>10.56777708161006</v>
       </c>
       <c r="C7">
-        <v>30.22579630147841</v>
+        <v>7.816633931287805</v>
       </c>
       <c r="D7">
-        <v>6.587783999898941</v>
+        <v>6.264131364382944</v>
       </c>
       <c r="E7">
-        <v>27.13467264965869</v>
+        <v>12.8289603615533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.010006328931805</v>
+        <v>44.11194745237255</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>13.67113430644106</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.80996271273985</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.29035473480278</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.96741746525907</v>
       </c>
       <c r="N7">
-        <v>18.13388565133302</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40.87536023990668</v>
+        <v>11.59561162187094</v>
       </c>
       <c r="C8">
-        <v>33.99740520843736</v>
+        <v>8.624403322113119</v>
       </c>
       <c r="D8">
-        <v>7.386332810734254</v>
+        <v>6.905053445666868</v>
       </c>
       <c r="E8">
-        <v>30.62618322963217</v>
+        <v>13.95589145507398</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.971723732044517</v>
+        <v>46.53602992373465</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.00563882811813</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>22.41648121345341</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.22603756007656</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.24969430489222</v>
       </c>
       <c r="N8">
-        <v>18.78557023643991</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49.61233386771281</v>
+        <v>13.41037000512853</v>
       </c>
       <c r="C9">
-        <v>41.40229600477375</v>
+        <v>10.05702205370963</v>
       </c>
       <c r="D9">
-        <v>8.931563609261323</v>
+        <v>8.057863408012613</v>
       </c>
       <c r="E9">
-        <v>37.62674505187181</v>
+        <v>16.10088071336984</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.889898680190225</v>
+        <v>51.25488432160987</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.71183416437176</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23.68019428967852</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.88864779803906</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.52984356245089</v>
       </c>
       <c r="N9">
-        <v>20.20420348264143</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56.50938298210795</v>
+        <v>14.62551964264452</v>
       </c>
       <c r="C10">
-        <v>47.2991771915889</v>
+        <v>11.02209974531332</v>
       </c>
       <c r="D10">
-        <v>10.13681509624671</v>
+        <v>8.831081200564753</v>
       </c>
       <c r="E10">
-        <v>43.41600043910524</v>
+        <v>17.71788719673982</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.818169076195391</v>
+        <v>54.68365242004353</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.26201250695871</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24.65420845222557</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.0082450283453</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.06896721790544</v>
       </c>
       <c r="N10">
-        <v>21.42331248377577</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60.0085104854968</v>
+        <v>15.15374509531818</v>
       </c>
       <c r="C11">
-        <v>50.3154378933264</v>
+        <v>11.44332072568551</v>
       </c>
       <c r="D11">
-        <v>10.74220391036057</v>
+        <v>9.167619702760982</v>
       </c>
       <c r="E11">
-        <v>46.48781425584235</v>
+        <v>18.42678265307425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.779135051695906</v>
+        <v>56.23343003841309</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.51936472304135</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25.10747352120772</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.49634440479542</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.74133697259298</v>
       </c>
       <c r="N11">
-        <v>22.06366195926448</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61.43862950007753</v>
+        <v>15.35033887059192</v>
       </c>
       <c r="C12">
-        <v>51.55410986580547</v>
+        <v>11.60037376060308</v>
       </c>
       <c r="D12">
-        <v>10.98817703836814</v>
+        <v>9.292943146877775</v>
       </c>
       <c r="E12">
-        <v>47.77778447436777</v>
+        <v>18.69158177682563</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.762632163119155</v>
+        <v>56.81882875629137</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.61786496950153</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.28061742364172</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.67821270026589</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.99211240561482</v>
       </c>
       <c r="N12">
-        <v>22.32818838524966</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61.12439429922598</v>
+        <v>15.30814995390534</v>
       </c>
       <c r="C13">
-        <v>51.28162007964671</v>
+        <v>11.56665695165836</v>
       </c>
       <c r="D13">
-        <v>10.9342099808505</v>
+        <v>9.266045457003749</v>
       </c>
       <c r="E13">
-        <v>47.49241426045211</v>
+        <v>18.63471129851122</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.766286484260031</v>
+        <v>56.69281744318248</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.59660405147526</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25.24326015284274</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.63917445449949</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.9382713326583</v>
       </c>
       <c r="N13">
-        <v>22.26995375623294</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>60.12353458800075</v>
+        <v>15.16998721153978</v>
       </c>
       <c r="C14">
-        <v>50.41492834784135</v>
+        <v>11.45629012231475</v>
       </c>
       <c r="D14">
-        <v>10.76202110556367</v>
+        <v>9.177972134078662</v>
       </c>
       <c r="E14">
-        <v>46.5907557982745</v>
+        <v>18.44863968193278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.777819806017549</v>
+        <v>56.28162040847305</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.52744721714059</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>25.12168777781647</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.51136569476377</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.76204433188492</v>
       </c>
       <c r="N14">
-        <v>22.08488707697552</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59.52673385844724</v>
+        <v>15.084914407272</v>
       </c>
       <c r="C15">
-        <v>49.89897200006696</v>
+        <v>11.38837092843673</v>
       </c>
       <c r="D15">
-        <v>10.65913864924622</v>
+        <v>9.123751229429397</v>
       </c>
       <c r="E15">
-        <v>46.05810949874855</v>
+        <v>18.33419699250534</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.784621286699164</v>
+        <v>56.02955983301921</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.48522400224619</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>25.04741829355488</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.43269584389675</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.65360561236724</v>
       </c>
       <c r="N15">
-        <v>21.97486704253143</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56.29140135328663</v>
+        <v>14.59051287471496</v>
       </c>
       <c r="C16">
-        <v>47.11189130612012</v>
+        <v>10.99422259161252</v>
       </c>
       <c r="D16">
-        <v>10.09895132939567</v>
+        <v>8.808787541019459</v>
       </c>
       <c r="E16">
-        <v>43.22811803957356</v>
+        <v>17.67103821027317</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.82053965024852</v>
+        <v>54.58216486058866</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.24533855075318</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24.62479421941423</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.97592682779053</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.02448037030086</v>
       </c>
       <c r="N16">
-        <v>21.38381678722537</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54.4234225984553</v>
+        <v>14.28099106475385</v>
       </c>
       <c r="C17">
-        <v>45.50962162506201</v>
+        <v>10.74793871225749</v>
       </c>
       <c r="D17">
-        <v>9.773826418290362</v>
+        <v>8.611721734027263</v>
       </c>
       <c r="E17">
-        <v>41.63267456909968</v>
+        <v>17.25750697781336</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.840569906208412</v>
+        <v>53.69162336649468</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>15.10000604799351</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>24.36815700889792</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.69033848041283</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.6315237718563</v>
       </c>
       <c r="N17">
-        <v>21.04763269244513</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>53.37856787804758</v>
+        <v>14.10064498575202</v>
       </c>
       <c r="C18">
-        <v>44.61535645682929</v>
+        <v>10.60460070449591</v>
       </c>
       <c r="D18">
-        <v>9.591481488752256</v>
+        <v>8.496939315397851</v>
       </c>
       <c r="E18">
-        <v>40.75087004875557</v>
+        <v>17.01712979816484</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.851555620989022</v>
+        <v>53.17846343768333</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15.01707810745707</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>24.22150104579903</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.52407328664778</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.40287973238074</v>
       </c>
       <c r="N18">
-        <v>20.86152188666568</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53.02895556191768</v>
+        <v>14.03918210375935</v>
       </c>
       <c r="C19">
-        <v>44.31642840111723</v>
+        <v>10.55577698046969</v>
       </c>
       <c r="D19">
-        <v>9.530393970471634</v>
+        <v>8.457827399684126</v>
       </c>
       <c r="E19">
-        <v>40.45739075256594</v>
+        <v>16.93530301039565</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.855197127045446</v>
+        <v>53.00455674716675</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.9891133503783</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>24.17200901491012</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.46743242611153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.32500923601115</v>
       </c>
       <c r="N19">
-        <v>20.79958482443977</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54.61897807250114</v>
+        <v>14.31417935244873</v>
       </c>
       <c r="C20">
-        <v>45.67714452216797</v>
+        <v>10.77432940527077</v>
       </c>
       <c r="D20">
-        <v>9.807916411571355</v>
+        <v>8.632847794806931</v>
       </c>
       <c r="E20">
-        <v>41.79852636991187</v>
+        <v>17.30178807418149</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.838496579240969</v>
+        <v>53.7865212760981</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.11540809371349</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>24.3953774258721</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.72094649738208</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.67362533475275</v>
       </c>
       <c r="N20">
-        <v>21.08262618602161</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>60.41392672697488</v>
+        <v>15.2106613288037</v>
       </c>
       <c r="C21">
-        <v>50.66620736098357</v>
+        <v>11.4887732554159</v>
       </c>
       <c r="D21">
-        <v>10.81202641565294</v>
+        <v>9.203898258468376</v>
       </c>
       <c r="E21">
-        <v>46.85125769030351</v>
+        <v>18.50339067324066</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.77448997911603</v>
+        <v>56.40243856814006</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.54773156591258</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25.15735535819907</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.54898593389069</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.81390923764465</v>
       </c>
       <c r="N21">
-        <v>22.13851403877477</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>64.91092554137433</v>
+        <v>15.77660175233376</v>
       </c>
       <c r="C22">
-        <v>54.57840559780739</v>
+        <v>11.94145474402937</v>
       </c>
       <c r="D22">
-        <v>11.58113393608053</v>
+        <v>9.564813429034713</v>
       </c>
       <c r="E22">
-        <v>51.0142097551469</v>
+        <v>19.26757282966706</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.721153927572297</v>
+        <v>58.1035883039627</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.8364017218643</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>25.66414089794709</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.07292763197772</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.53687600031807</v>
       </c>
       <c r="N22">
-        <v>23.15735191993651</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62.40429422483572</v>
+        <v>15.47634068104008</v>
       </c>
       <c r="C23">
-        <v>52.39267336116096</v>
+        <v>11.70111652182023</v>
       </c>
       <c r="D23">
-        <v>11.15372366776821</v>
+        <v>9.373287055560638</v>
       </c>
       <c r="E23">
-        <v>48.66200305210384</v>
+        <v>18.86157824920651</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.751301039235613</v>
+        <v>57.19641572258956</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.68176030263216</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.39283779762303</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.79483512453387</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.1529959347538</v>
       </c>
       <c r="N23">
-        <v>22.50748463333154</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54.53047987172688</v>
+        <v>14.29918240360435</v>
       </c>
       <c r="C24">
-        <v>45.60132634669214</v>
+        <v>10.76240361956628</v>
       </c>
       <c r="D24">
-        <v>9.792490559817043</v>
+        <v>8.623301338540514</v>
       </c>
       <c r="E24">
-        <v>41.72343790855142</v>
+        <v>17.28177680471543</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.839435536120552</v>
+        <v>53.74362158968097</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15.10844288215575</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24.38306831146672</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.70711508754349</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.65459972725773</v>
       </c>
       <c r="N24">
-        <v>21.0667838543453</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47.2155287915443</v>
+        <v>12.94051592440257</v>
       </c>
       <c r="C25">
-        <v>39.36493180684818</v>
+        <v>9.685193216572062</v>
       </c>
       <c r="D25">
-        <v>8.509593758642154</v>
+        <v>7.759204255618514</v>
       </c>
       <c r="E25">
-        <v>35.67646323307039</v>
+        <v>15.48909186884009</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.913310617192132</v>
+        <v>49.9841051530948</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.51535105155411</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>23.33037094712608</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.4570322787023</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.93744266428152</v>
       </c>
       <c r="N25">
-        <v>19.79868713976745</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.86037067423933</v>
+        <v>8.951501317152372</v>
       </c>
       <c r="C2">
-        <v>8.832854358064198</v>
+        <v>5.655806928691322</v>
       </c>
       <c r="D2">
-        <v>7.073135082200037</v>
+        <v>6.007734910445006</v>
       </c>
       <c r="E2">
-        <v>14.25278956199853</v>
+        <v>12.08109677814984</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.19130167311872</v>
+        <v>45.37897452412638</v>
       </c>
       <c r="H2">
-        <v>14.09965207719222</v>
+        <v>18.00677494616066</v>
       </c>
       <c r="I2">
-        <v>22.58585272363754</v>
+        <v>26.78271578696242</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.46781384462657</v>
+        <v>9.705172977140139</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.58104066133301</v>
+        <v>14.23580255800572</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07716441778108</v>
+        <v>8.757089766904521</v>
       </c>
       <c r="C3">
-        <v>8.216686459114724</v>
+        <v>5.445330853836549</v>
       </c>
       <c r="D3">
-        <v>6.575977265018515</v>
+        <v>5.893435632429848</v>
       </c>
       <c r="E3">
-        <v>13.38214500227731</v>
+        <v>11.84975282088854</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.28875886539129</v>
+        <v>44.90887413912198</v>
       </c>
       <c r="H3">
-        <v>13.83078775650876</v>
+        <v>17.97973445332703</v>
       </c>
       <c r="I3">
-        <v>22.10027721126938</v>
+        <v>26.70904347305849</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.75346423884621</v>
+        <v>9.578188036009605</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.60210599939498</v>
+        <v>14.09607290731251</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57062222863949</v>
+        <v>8.638696298478633</v>
       </c>
       <c r="C4">
-        <v>7.818867062068882</v>
+        <v>5.313861239451921</v>
       </c>
       <c r="D4">
-        <v>6.265659372271617</v>
+        <v>5.823978073490061</v>
       </c>
       <c r="E4">
-        <v>12.83201945989166</v>
+        <v>11.70925077126039</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.11838100897306</v>
+        <v>44.62802459879573</v>
       </c>
       <c r="H4">
-        <v>13.67199214343843</v>
+        <v>17.96593432864122</v>
       </c>
       <c r="I4">
-        <v>21.81152725848358</v>
+        <v>26.66805492204776</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.29293787405969</v>
+        <v>9.502520859052773</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.97095816923532</v>
+        <v>14.01377446825236</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35770069738891</v>
+        <v>8.590778450961352</v>
       </c>
       <c r="C5">
-        <v>7.651784751885327</v>
+        <v>5.259822361851697</v>
       </c>
       <c r="D5">
-        <v>6.151666033336403</v>
+        <v>5.79589772242237</v>
       </c>
       <c r="E5">
-        <v>12.60407887829118</v>
+        <v>11.65246548438505</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.64136661613917</v>
+        <v>44.51564121010252</v>
       </c>
       <c r="H5">
-        <v>13.60885646155917</v>
+        <v>17.96101725272683</v>
       </c>
       <c r="I5">
-        <v>21.69623028351543</v>
+        <v>26.65242578788503</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.09973865551141</v>
+        <v>9.472306319614269</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.7061159731353</v>
+        <v>13.98115223965187</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.32195120257455</v>
+        <v>8.582844016182371</v>
       </c>
       <c r="C6">
-        <v>7.623738944528574</v>
+        <v>5.250824275232329</v>
       </c>
       <c r="D6">
-        <v>6.132599052719282</v>
+        <v>5.791249783403819</v>
       </c>
       <c r="E6">
-        <v>12.56600782380464</v>
+        <v>11.643067144278</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.56216941414841</v>
+        <v>44.49710774232643</v>
       </c>
       <c r="H6">
-        <v>13.59846773335789</v>
+        <v>17.9602434952751</v>
       </c>
       <c r="I6">
-        <v>21.67722873228567</v>
+        <v>26.64989561256453</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.06732366010653</v>
+        <v>9.467327881285444</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.66167528577865</v>
+        <v>13.97579162097346</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.56777708161006</v>
+        <v>8.638048621150778</v>
       </c>
       <c r="C7">
-        <v>7.816633931287805</v>
+        <v>5.313134194190872</v>
       </c>
       <c r="D7">
-        <v>6.264131364382944</v>
+        <v>5.823598408210271</v>
       </c>
       <c r="E7">
-        <v>12.8289603615533</v>
+        <v>11.70848293167066</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.11194745237255</v>
+        <v>44.6265004602924</v>
       </c>
       <c r="H7">
-        <v>13.67113430644106</v>
+        <v>17.96586515234505</v>
       </c>
       <c r="I7">
-        <v>21.80996271273985</v>
+        <v>26.66783978600303</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.29035473480278</v>
+        <v>9.502110809081444</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.96741746525907</v>
+        <v>14.01333076248602</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59561162187094</v>
+        <v>8.88431501825122</v>
       </c>
       <c r="C8">
-        <v>8.624403322113119</v>
+        <v>5.583755272436658</v>
       </c>
       <c r="D8">
-        <v>6.905053445666868</v>
+        <v>5.968199930560149</v>
       </c>
       <c r="E8">
-        <v>13.95589145507398</v>
+        <v>12.00105815189801</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.53602992373465</v>
+        <v>45.21533075803879</v>
       </c>
       <c r="H8">
-        <v>14.00563882811813</v>
+        <v>17.99687085566234</v>
       </c>
       <c r="I8">
-        <v>22.41648121345341</v>
+        <v>26.75643621166295</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.22603756007656</v>
+        <v>9.660936083150451</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.24969430489222</v>
+        <v>14.18692029654482</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.41037000512853</v>
+        <v>9.371425323717201</v>
       </c>
       <c r="C9">
-        <v>10.05702205370963</v>
+        <v>6.09282352385427</v>
       </c>
       <c r="D9">
-        <v>8.057863408012613</v>
+        <v>6.255650660688172</v>
       </c>
       <c r="E9">
-        <v>16.10088071336984</v>
+        <v>12.58346319626903</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.25488432160987</v>
+        <v>46.42704286612565</v>
       </c>
       <c r="H9">
-        <v>14.71183416437176</v>
+        <v>18.07981703430665</v>
       </c>
       <c r="I9">
-        <v>23.68019428967852</v>
+        <v>26.96355600899423</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.88864779803906</v>
+        <v>9.988777693808979</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.52984356245089</v>
+        <v>14.5534008620206</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.62551964264452</v>
+        <v>9.72726639449659</v>
       </c>
       <c r="C10">
-        <v>11.02209974531332</v>
+        <v>6.449092461515098</v>
       </c>
       <c r="D10">
-        <v>8.831081200564753</v>
+        <v>6.466794655912919</v>
       </c>
       <c r="E10">
-        <v>17.71788719673982</v>
+        <v>13.01193362962188</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.68365242004353</v>
+        <v>47.34535986434565</v>
       </c>
       <c r="H10">
-        <v>15.26201250695871</v>
+        <v>18.1541053652045</v>
       </c>
       <c r="I10">
-        <v>24.65420845222557</v>
+        <v>27.13560373089815</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.0082450283453</v>
+        <v>10.23706794799167</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.06896721790544</v>
+        <v>14.83620912868332</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.15374509531818</v>
+        <v>9.887801318911475</v>
       </c>
       <c r="C11">
-        <v>11.44332072568551</v>
+        <v>6.606521225100153</v>
       </c>
       <c r="D11">
-        <v>9.167619702760982</v>
+        <v>6.562352737246082</v>
       </c>
       <c r="E11">
-        <v>18.42678265307425</v>
+        <v>13.2060296154375</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.23343003841309</v>
+        <v>47.76775453571002</v>
       </c>
       <c r="H11">
-        <v>15.51936472304135</v>
+        <v>18.19075756650109</v>
       </c>
       <c r="I11">
-        <v>25.10747352120772</v>
+        <v>27.21806800522</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.49634440479542</v>
+        <v>10.35108700489234</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.74133697259298</v>
+        <v>14.96728995429166</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.35033887059192</v>
+        <v>9.948329487197293</v>
       </c>
       <c r="C12">
-        <v>11.60037376060308</v>
+        <v>6.665412595116027</v>
       </c>
       <c r="D12">
-        <v>9.292943146877775</v>
+        <v>6.598428988882567</v>
       </c>
       <c r="E12">
-        <v>18.69158177682563</v>
+        <v>13.27933605907153</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.81882875629137</v>
+        <v>47.92824817833623</v>
       </c>
       <c r="H12">
-        <v>15.61786496950153</v>
+        <v>18.20504338382778</v>
       </c>
       <c r="I12">
-        <v>25.28061742364172</v>
+        <v>27.24988702529003</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.67821270026589</v>
+        <v>10.39437192762447</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.99211240561482</v>
+        <v>15.01723193132972</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.30814995390534</v>
+        <v>9.935306429493528</v>
       </c>
       <c r="C13">
-        <v>11.56665695165836</v>
+        <v>6.652762282673215</v>
       </c>
       <c r="D13">
-        <v>9.266045457003749</v>
+        <v>6.590664789059475</v>
       </c>
       <c r="E13">
-        <v>18.63471129851122</v>
+        <v>13.26355798014022</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.69281744318248</v>
+        <v>47.89366090711627</v>
       </c>
       <c r="H13">
-        <v>15.59660405147526</v>
+        <v>18.20194867914688</v>
       </c>
       <c r="I13">
-        <v>25.24326015284274</v>
+        <v>27.24300812270134</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.63917445449949</v>
+        <v>10.38504564059352</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.9382713326583</v>
+        <v>15.00646320582563</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.16998721153978</v>
+        <v>9.892786664265589</v>
       </c>
       <c r="C14">
-        <v>11.45629012231475</v>
+        <v>6.611381050325359</v>
       </c>
       <c r="D14">
-        <v>9.177972134078662</v>
+        <v>6.565323161902045</v>
       </c>
       <c r="E14">
-        <v>18.44863968193278</v>
+        <v>13.21206488038428</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.28162040847305</v>
+        <v>47.7809483059388</v>
       </c>
       <c r="H14">
-        <v>15.52744721714059</v>
+        <v>18.19192475171446</v>
       </c>
       <c r="I14">
-        <v>25.12168777781647</v>
+        <v>27.2206739919085</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.51136569476377</v>
+        <v>10.35464616721347</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.76204433188492</v>
+        <v>14.9713928655294</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.084914407272</v>
+        <v>9.86670582777359</v>
       </c>
       <c r="C15">
-        <v>11.38837092843673</v>
+        <v>6.585938083119236</v>
       </c>
       <c r="D15">
-        <v>9.123751229429397</v>
+        <v>6.549785305189433</v>
       </c>
       <c r="E15">
-        <v>18.33419699250534</v>
+        <v>13.18049648050553</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.02955983301921</v>
+        <v>47.71197541325181</v>
       </c>
       <c r="H15">
-        <v>15.48522400224619</v>
+        <v>18.18583759188401</v>
       </c>
       <c r="I15">
-        <v>25.04741829355488</v>
+        <v>27.20707035677096</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.43269584389675</v>
+        <v>10.33603838921538</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.65360561236724</v>
+        <v>14.94994959111421</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.59051287471496</v>
+        <v>9.716741997845805</v>
       </c>
       <c r="C16">
-        <v>10.99422259161252</v>
+        <v>6.438705780055473</v>
       </c>
       <c r="D16">
-        <v>8.808787541019459</v>
+        <v>6.46053644886751</v>
       </c>
       <c r="E16">
-        <v>17.67103821027317</v>
+        <v>12.99922597612177</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.58216486058866</v>
+        <v>47.31783809684254</v>
       </c>
       <c r="H16">
-        <v>15.24533855075318</v>
+        <v>18.15176718979938</v>
       </c>
       <c r="I16">
-        <v>24.62479421941423</v>
+        <v>27.1302979661703</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.97592682779053</v>
+        <v>10.22963416252874</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.02448037030086</v>
+        <v>14.82768774989095</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28099106475385</v>
+        <v>9.624349618069166</v>
       </c>
       <c r="C17">
-        <v>10.74793871225749</v>
+        <v>6.347152802361404</v>
       </c>
       <c r="D17">
-        <v>8.611721734027263</v>
+        <v>6.405630901061052</v>
       </c>
       <c r="E17">
-        <v>17.25750697781336</v>
+        <v>12.88775785007759</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.69162336649468</v>
+        <v>47.07714808132509</v>
       </c>
       <c r="H17">
-        <v>15.10000604799351</v>
+        <v>18.1315950221857</v>
       </c>
       <c r="I17">
-        <v>24.36815700889792</v>
+        <v>27.08426763119032</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.69033848041283</v>
+        <v>10.16460013542816</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.6315237718563</v>
+        <v>14.75327454707258</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.10064498575202</v>
+        <v>9.571085869026902</v>
       </c>
       <c r="C18">
-        <v>10.60460070449591</v>
+        <v>6.294060117898427</v>
       </c>
       <c r="D18">
-        <v>8.496939315397851</v>
+        <v>6.374006536030782</v>
       </c>
       <c r="E18">
-        <v>17.01712979816484</v>
+        <v>12.82357172157822</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.17846343768333</v>
+        <v>46.93915459466557</v>
       </c>
       <c r="H18">
-        <v>15.01707810745707</v>
+        <v>18.12026184217115</v>
       </c>
       <c r="I18">
-        <v>24.22150104579903</v>
+        <v>27.05818820916522</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.52407328664778</v>
+        <v>10.12729773358609</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.40287973238074</v>
+        <v>14.71070546615585</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.03918210375935</v>
+        <v>9.553032926250104</v>
       </c>
       <c r="C19">
-        <v>10.55577698046969</v>
+        <v>6.276011170460895</v>
       </c>
       <c r="D19">
-        <v>8.457827399684126</v>
+        <v>6.363292698470123</v>
       </c>
       <c r="E19">
-        <v>16.93530301039565</v>
+        <v>12.80182930460763</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.00455674716675</v>
+        <v>46.89251265934276</v>
       </c>
       <c r="H19">
-        <v>14.9891133503783</v>
+        <v>18.11647100915884</v>
       </c>
       <c r="I19">
-        <v>24.17200901491012</v>
+        <v>27.04942653727295</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.46743242611153</v>
+        <v>10.11468695108463</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.32500923601115</v>
+        <v>14.69633341950233</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.31417935244873</v>
+        <v>9.634198105123511</v>
       </c>
       <c r="C20">
-        <v>10.77432940527077</v>
+        <v>6.356944103931323</v>
       </c>
       <c r="D20">
-        <v>8.632847794806931</v>
+        <v>6.411480545954642</v>
       </c>
       <c r="E20">
-        <v>17.30178807418149</v>
+        <v>12.89963189928113</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.7865212760981</v>
+        <v>47.10272479968358</v>
       </c>
       <c r="H20">
-        <v>15.11540809371349</v>
+        <v>18.13371454205935</v>
       </c>
       <c r="I20">
-        <v>24.3953774258721</v>
+        <v>27.08912673897688</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.72094649738208</v>
+        <v>10.17151274471167</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.67362533475275</v>
+        <v>14.76117233270063</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.2106613288037</v>
+        <v>9.905283424270859</v>
       </c>
       <c r="C21">
-        <v>11.4887732554159</v>
+        <v>6.623555769756378</v>
       </c>
       <c r="D21">
-        <v>9.203898258468376</v>
+        <v>6.572769883240433</v>
       </c>
       <c r="E21">
-        <v>18.50339067324066</v>
+        <v>13.22719549020165</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.40243856814006</v>
+        <v>47.81404102685874</v>
       </c>
       <c r="H21">
-        <v>15.54773156591258</v>
+        <v>18.19485803058342</v>
       </c>
       <c r="I21">
-        <v>25.15735535819907</v>
+        <v>27.22721811363635</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.54898593389069</v>
+        <v>10.36357264667902</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.81390923764465</v>
+        <v>14.9816859686434</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.77660175233376</v>
+        <v>10.0808913939653</v>
       </c>
       <c r="C22">
-        <v>11.94145474402937</v>
+        <v>6.793563682819468</v>
       </c>
       <c r="D22">
-        <v>9.564813429034713</v>
+        <v>6.677526879881719</v>
       </c>
       <c r="E22">
-        <v>19.26757282966706</v>
+        <v>13.44011686750933</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.1035883039627</v>
+        <v>48.28202788467718</v>
       </c>
       <c r="H22">
-        <v>15.8364017218643</v>
+        <v>18.23718534801998</v>
       </c>
       <c r="I22">
-        <v>25.66414089794709</v>
+        <v>27.32091076454005</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.07292763197772</v>
+        <v>10.48970618157513</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.53687600031807</v>
+        <v>15.12755846638592</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.47634068104008</v>
+        <v>9.987331116688965</v>
       </c>
       <c r="C23">
-        <v>11.70111652182023</v>
+        <v>6.703231835277422</v>
       </c>
       <c r="D23">
-        <v>9.373287055560638</v>
+        <v>6.621688300160625</v>
       </c>
       <c r="E23">
-        <v>18.86157824920651</v>
+        <v>13.32660701029592</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.19641572258956</v>
+        <v>48.03201244563567</v>
       </c>
       <c r="H23">
-        <v>15.68176030263216</v>
+        <v>18.21437955143573</v>
       </c>
       <c r="I23">
-        <v>25.39283779762303</v>
+        <v>27.27059455459299</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.79483512453387</v>
+        <v>10.42234521405436</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.1529959347538</v>
+        <v>15.04955792078513</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29918240360435</v>
+        <v>9.629746053889795</v>
       </c>
       <c r="C24">
-        <v>10.76240361956628</v>
+        <v>6.352518877664795</v>
       </c>
       <c r="D24">
-        <v>8.623301338540514</v>
+        <v>6.40883610057989</v>
       </c>
       <c r="E24">
-        <v>17.28177680471543</v>
+        <v>12.89426395239892</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.74362158968097</v>
+        <v>47.09116036433071</v>
       </c>
       <c r="H24">
-        <v>15.10844288215575</v>
+        <v>18.13275548411651</v>
       </c>
       <c r="I24">
-        <v>24.38306831146672</v>
+        <v>27.08692873906339</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.70711508754349</v>
+        <v>10.16838728102551</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.65459972725773</v>
+        <v>14.75760107984848</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.94051592440257</v>
+        <v>9.239687445789253</v>
       </c>
       <c r="C25">
-        <v>9.685193216572062</v>
+        <v>5.957926378280864</v>
       </c>
       <c r="D25">
-        <v>7.759204255618514</v>
+        <v>6.177725292961809</v>
       </c>
       <c r="E25">
-        <v>15.48909186884009</v>
+        <v>12.42547312492298</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.9841051530948</v>
+        <v>46.09381880310688</v>
       </c>
       <c r="H25">
-        <v>14.51535105155411</v>
+        <v>18.05502100913925</v>
       </c>
       <c r="I25">
-        <v>23.33037094712608</v>
+        <v>26.90399581477271</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.4570322787023</v>
+        <v>9.898597352878818</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.93744266428152</v>
+        <v>14.45170375847704</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.951501317152372</v>
+        <v>11.86037067423925</v>
       </c>
       <c r="C2">
-        <v>5.655806928691322</v>
+        <v>8.832854358064166</v>
       </c>
       <c r="D2">
-        <v>6.007734910445006</v>
+        <v>7.073135082199951</v>
       </c>
       <c r="E2">
-        <v>12.08109677814984</v>
+        <v>14.2527895619985</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.37897452412638</v>
+        <v>47.19130167311884</v>
       </c>
       <c r="H2">
-        <v>18.00677494616066</v>
+        <v>14.09965207719229</v>
       </c>
       <c r="I2">
-        <v>26.78271578696242</v>
+        <v>22.58585272363768</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.705172977140139</v>
+        <v>11.46781384462651</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.23580255800572</v>
+        <v>14.581040661333</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.757089766904521</v>
+        <v>11.07716441778108</v>
       </c>
       <c r="C3">
-        <v>5.445330853836549</v>
+        <v>8.216686459114744</v>
       </c>
       <c r="D3">
-        <v>5.893435632429848</v>
+        <v>6.575977265018472</v>
       </c>
       <c r="E3">
-        <v>11.84975282088854</v>
+        <v>13.38214500227731</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.90887413912198</v>
+        <v>45.28875886539127</v>
       </c>
       <c r="H3">
-        <v>17.97973445332703</v>
+        <v>13.83078775650879</v>
       </c>
       <c r="I3">
-        <v>26.70904347305849</v>
+        <v>22.10027721126939</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.578188036009605</v>
+        <v>10.75346423884624</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.09607290731251</v>
+        <v>13.60210599939499</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.638696298478633</v>
+        <v>10.57062222863963</v>
       </c>
       <c r="C4">
-        <v>5.313861239451921</v>
+        <v>7.818867062068764</v>
       </c>
       <c r="D4">
-        <v>5.823978073490061</v>
+        <v>6.265659372271576</v>
       </c>
       <c r="E4">
-        <v>11.70925077126039</v>
+        <v>12.83201945989166</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.62802459879573</v>
+        <v>44.11838100897306</v>
       </c>
       <c r="H4">
-        <v>17.96593432864122</v>
+        <v>13.67199214343845</v>
       </c>
       <c r="I4">
-        <v>26.66805492204776</v>
+        <v>21.81152725848354</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.502520859052773</v>
+        <v>10.29293787405974</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.01377446825236</v>
+        <v>12.97095816923534</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.590778450961352</v>
+        <v>10.35770069738909</v>
       </c>
       <c r="C5">
-        <v>5.259822361851697</v>
+        <v>7.651784751885278</v>
       </c>
       <c r="D5">
-        <v>5.79589772242237</v>
+        <v>6.151666033336413</v>
       </c>
       <c r="E5">
-        <v>11.65246548438505</v>
+        <v>12.60407887829122</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.51564121010252</v>
+        <v>43.64136661613893</v>
       </c>
       <c r="H5">
-        <v>17.96101725272683</v>
+        <v>13.60885646155921</v>
       </c>
       <c r="I5">
-        <v>26.65242578788503</v>
+        <v>21.69623028351532</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.472306319614269</v>
+        <v>10.09973865551155</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.98115223965187</v>
+        <v>12.70611597313534</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.582844016182371</v>
+        <v>10.32195120257462</v>
       </c>
       <c r="C6">
-        <v>5.250824275232329</v>
+        <v>7.623738944528466</v>
       </c>
       <c r="D6">
-        <v>5.791249783403819</v>
+        <v>6.132599052719319</v>
       </c>
       <c r="E6">
-        <v>11.643067144278</v>
+        <v>12.56600782380465</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.49710774232643</v>
+        <v>43.56216941414849</v>
       </c>
       <c r="H6">
-        <v>17.9602434952751</v>
+        <v>13.59846773335787</v>
       </c>
       <c r="I6">
-        <v>26.64989561256453</v>
+        <v>21.67722873228565</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.467327881285444</v>
+        <v>10.06732366010652</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.97579162097346</v>
+        <v>12.66167528577864</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.638048621150778</v>
+        <v>10.56777708160999</v>
       </c>
       <c r="C7">
-        <v>5.313134194190872</v>
+        <v>7.816633931287813</v>
       </c>
       <c r="D7">
-        <v>5.823598408210271</v>
+        <v>6.26413136438293</v>
       </c>
       <c r="E7">
-        <v>11.70848293167066</v>
+        <v>12.82896036155326</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.6265004602924</v>
+        <v>44.11194745237274</v>
       </c>
       <c r="H7">
-        <v>17.96586515234505</v>
+        <v>13.67113430644114</v>
       </c>
       <c r="I7">
-        <v>26.66783978600303</v>
+        <v>21.80996271274002</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.502110809081444</v>
+        <v>10.29035473480272</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.01333076248602</v>
+        <v>12.96741746525908</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.88431501825122</v>
+        <v>11.59561162187103</v>
       </c>
       <c r="C8">
-        <v>5.583755272436658</v>
+        <v>8.624403322113105</v>
       </c>
       <c r="D8">
-        <v>5.968199930560149</v>
+        <v>6.905053445666754</v>
       </c>
       <c r="E8">
-        <v>12.00105815189801</v>
+        <v>13.95589145507399</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.21533075803879</v>
+        <v>46.53602992373451</v>
       </c>
       <c r="H8">
-        <v>17.99687085566234</v>
+        <v>14.00563882811808</v>
       </c>
       <c r="I8">
-        <v>26.75643621166295</v>
+        <v>22.41648121345333</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.660936083150451</v>
+        <v>11.22603756007657</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.18692029654482</v>
+        <v>14.24969430489227</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371425323717201</v>
+        <v>13.41037000512857</v>
       </c>
       <c r="C9">
-        <v>6.09282352385427</v>
+        <v>10.05702205370964</v>
       </c>
       <c r="D9">
-        <v>6.255650660688172</v>
+        <v>8.05786340801267</v>
       </c>
       <c r="E9">
-        <v>12.58346319626903</v>
+        <v>16.10088071336987</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>46.42704286612565</v>
+        <v>51.25488432161006</v>
       </c>
       <c r="H9">
-        <v>18.07981703430665</v>
+        <v>14.7118341643717</v>
       </c>
       <c r="I9">
-        <v>26.96355600899423</v>
+        <v>23.6801942896785</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.988777693808979</v>
+        <v>12.88864779803909</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.5534008620206</v>
+        <v>16.52984356245092</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.72726639449659</v>
+        <v>14.62551964264451</v>
       </c>
       <c r="C10">
-        <v>6.449092461515098</v>
+        <v>11.02209974531335</v>
       </c>
       <c r="D10">
-        <v>6.466794655912919</v>
+        <v>8.831081200564753</v>
       </c>
       <c r="E10">
-        <v>13.01193362962188</v>
+        <v>17.71788719673979</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>47.34535986434565</v>
+        <v>54.68365242004356</v>
       </c>
       <c r="H10">
-        <v>18.1541053652045</v>
+        <v>15.26201250695874</v>
       </c>
       <c r="I10">
-        <v>27.13560373089815</v>
+        <v>24.65420845222563</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.23706794799167</v>
+        <v>14.00824502834527</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.83620912868332</v>
+        <v>18.06896721790541</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.887801318911475</v>
+        <v>15.15374509531808</v>
       </c>
       <c r="C11">
-        <v>6.606521225100153</v>
+        <v>11.44332072568561</v>
       </c>
       <c r="D11">
-        <v>6.562352737246082</v>
+        <v>9.167619702760975</v>
       </c>
       <c r="E11">
-        <v>13.2060296154375</v>
+        <v>18.42678265307432</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.76775453571002</v>
+        <v>56.23343003841322</v>
       </c>
       <c r="H11">
-        <v>18.19075756650109</v>
+        <v>15.51936472304139</v>
       </c>
       <c r="I11">
-        <v>27.21806800522</v>
+        <v>25.10747352120781</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.35108700489234</v>
+        <v>14.49634440479535</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.96728995429166</v>
+        <v>18.74133697259301</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.948329487197293</v>
+        <v>15.35033887059188</v>
       </c>
       <c r="C12">
-        <v>6.665412595116027</v>
+        <v>11.60037376060311</v>
       </c>
       <c r="D12">
-        <v>6.598428988882567</v>
+        <v>9.292943146877837</v>
       </c>
       <c r="E12">
-        <v>13.27933605907153</v>
+        <v>18.69158177682563</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.92824817833623</v>
+        <v>56.81882875629142</v>
       </c>
       <c r="H12">
-        <v>18.20504338382778</v>
+        <v>15.61786496950154</v>
       </c>
       <c r="I12">
-        <v>27.24988702529003</v>
+        <v>25.28061742364177</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.39437192762447</v>
+        <v>14.67821270026586</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.01723193132972</v>
+        <v>18.99211240561482</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.935306429493528</v>
+        <v>15.3081499539054</v>
       </c>
       <c r="C13">
-        <v>6.652762282673215</v>
+        <v>11.56665695165823</v>
       </c>
       <c r="D13">
-        <v>6.590664789059475</v>
+        <v>9.266045457003729</v>
       </c>
       <c r="E13">
-        <v>13.26355798014022</v>
+        <v>18.63471129851128</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.89366090711627</v>
+        <v>56.69281744318256</v>
       </c>
       <c r="H13">
-        <v>18.20194867914688</v>
+        <v>15.59660405147524</v>
       </c>
       <c r="I13">
-        <v>27.24300812270134</v>
+        <v>25.2432601528427</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.38504564059352</v>
+        <v>14.63917445449953</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.00646320582563</v>
+        <v>18.93827133265834</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.892786664265589</v>
+        <v>15.16998721153969</v>
       </c>
       <c r="C14">
-        <v>6.611381050325359</v>
+        <v>11.45629012231474</v>
       </c>
       <c r="D14">
-        <v>6.565323161902045</v>
+        <v>9.17797213407858</v>
       </c>
       <c r="E14">
-        <v>13.21206488038428</v>
+        <v>18.44863968193273</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.7809483059388</v>
+        <v>56.28162040847292</v>
       </c>
       <c r="H14">
-        <v>18.19192475171446</v>
+        <v>15.52744721714063</v>
       </c>
       <c r="I14">
-        <v>27.2206739919085</v>
+        <v>25.12168777781648</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.35464616721347</v>
+        <v>14.51136569476368</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.9713928655294</v>
+        <v>18.76204433188484</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.86670582777359</v>
+        <v>15.08491440727202</v>
       </c>
       <c r="C15">
-        <v>6.585938083119236</v>
+        <v>11.38837092843653</v>
       </c>
       <c r="D15">
-        <v>6.549785305189433</v>
+        <v>9.123751229429331</v>
       </c>
       <c r="E15">
-        <v>13.18049648050553</v>
+        <v>18.33419699250537</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.71197541325181</v>
+        <v>56.02955983301931</v>
       </c>
       <c r="H15">
-        <v>18.18583759188401</v>
+        <v>15.48522400224626</v>
       </c>
       <c r="I15">
-        <v>27.20707035677096</v>
+        <v>25.04741829355498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.33603838921538</v>
+        <v>14.43269584389669</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.94994959111421</v>
+        <v>18.65360561236724</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.716741997845805</v>
+        <v>14.59051287471491</v>
       </c>
       <c r="C16">
-        <v>6.438705780055473</v>
+        <v>10.9942225916125</v>
       </c>
       <c r="D16">
-        <v>6.46053644886751</v>
+        <v>8.808787541019448</v>
       </c>
       <c r="E16">
-        <v>12.99922597612177</v>
+        <v>17.6710382102732</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>47.31783809684254</v>
+        <v>54.58216486058887</v>
       </c>
       <c r="H16">
-        <v>18.15176718979938</v>
+        <v>15.24533855075331</v>
       </c>
       <c r="I16">
-        <v>27.1302979661703</v>
+        <v>24.62479421941444</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.22963416252874</v>
+        <v>13.97592682779045</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.82768774989095</v>
+        <v>18.02448037030081</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.624349618069166</v>
+        <v>14.28099106475383</v>
       </c>
       <c r="C17">
-        <v>6.347152802361404</v>
+        <v>10.74793871225748</v>
       </c>
       <c r="D17">
-        <v>6.405630901061052</v>
+        <v>8.611721734027364</v>
       </c>
       <c r="E17">
-        <v>12.88775785007759</v>
+        <v>17.25750697781336</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>47.07714808132509</v>
+        <v>53.69162336649467</v>
       </c>
       <c r="H17">
-        <v>18.1315950221857</v>
+        <v>15.10000604799349</v>
       </c>
       <c r="I17">
-        <v>27.08426763119032</v>
+        <v>24.36815700889788</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.16460013542816</v>
+        <v>13.69033848041283</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.75327454707258</v>
+        <v>17.6315237718563</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.571085869026902</v>
+        <v>14.10064498575193</v>
       </c>
       <c r="C18">
-        <v>6.294060117898427</v>
+        <v>10.60460070449603</v>
       </c>
       <c r="D18">
-        <v>6.374006536030782</v>
+        <v>8.496939315397809</v>
       </c>
       <c r="E18">
-        <v>12.82357172157822</v>
+        <v>17.01712979816488</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.93915459466557</v>
+        <v>53.17846343768348</v>
       </c>
       <c r="H18">
-        <v>18.12026184217115</v>
+        <v>15.01707810745709</v>
       </c>
       <c r="I18">
-        <v>27.05818820916522</v>
+        <v>24.22150104579913</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.12729773358609</v>
+        <v>13.52407328664773</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.71070546615585</v>
+        <v>17.40287973238073</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.553032926250104</v>
+        <v>14.03918210375931</v>
       </c>
       <c r="C19">
-        <v>6.276011170460895</v>
+        <v>10.55577698046965</v>
       </c>
       <c r="D19">
-        <v>6.363292698470123</v>
+        <v>8.457827399684142</v>
       </c>
       <c r="E19">
-        <v>12.80182930460763</v>
+        <v>16.93530301039565</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.89251265934276</v>
+        <v>53.00455674716681</v>
       </c>
       <c r="H19">
-        <v>18.11647100915884</v>
+        <v>14.98911335037825</v>
       </c>
       <c r="I19">
-        <v>27.04942653727295</v>
+        <v>24.17200901491011</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.11468695108463</v>
+        <v>13.46743242611152</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.69633341950233</v>
+        <v>17.32500923601115</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.634198105123511</v>
+        <v>14.31417935244875</v>
       </c>
       <c r="C20">
-        <v>6.356944103931323</v>
+        <v>10.77432940527089</v>
       </c>
       <c r="D20">
-        <v>6.411480545954642</v>
+        <v>8.632847794806951</v>
       </c>
       <c r="E20">
-        <v>12.89963189928113</v>
+        <v>17.30178807418154</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>47.10272479968358</v>
+        <v>53.78652127609812</v>
       </c>
       <c r="H20">
-        <v>18.13371454205935</v>
+        <v>15.11540809371347</v>
       </c>
       <c r="I20">
-        <v>27.08912673897688</v>
+        <v>24.39537742587207</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.17151274471167</v>
+        <v>13.72094649738215</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.76117233270063</v>
+        <v>17.67362533475281</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.905283424270859</v>
+        <v>15.21066132880381</v>
       </c>
       <c r="C21">
-        <v>6.623555769756378</v>
+        <v>11.48877325541588</v>
       </c>
       <c r="D21">
-        <v>6.572769883240433</v>
+        <v>9.203898258468419</v>
       </c>
       <c r="E21">
-        <v>13.22719549020165</v>
+        <v>18.50339067324063</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.81404102685874</v>
+        <v>56.40243856814001</v>
       </c>
       <c r="H21">
-        <v>18.19485803058342</v>
+        <v>15.54773156591257</v>
       </c>
       <c r="I21">
-        <v>27.22721811363635</v>
+        <v>25.15735535819906</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.36357264667902</v>
+        <v>14.54898593389077</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.9816859686434</v>
+        <v>18.81390923764467</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.0808913939653</v>
+        <v>15.77660175233371</v>
       </c>
       <c r="C22">
-        <v>6.793563682819468</v>
+        <v>11.94145474402959</v>
       </c>
       <c r="D22">
-        <v>6.677526879881719</v>
+        <v>9.564813429034603</v>
       </c>
       <c r="E22">
-        <v>13.44011686750933</v>
+        <v>19.26757282966703</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.28202788467718</v>
+        <v>58.10358830396275</v>
       </c>
       <c r="H22">
-        <v>18.23718534801998</v>
+        <v>15.83640172186431</v>
       </c>
       <c r="I22">
-        <v>27.32091076454005</v>
+        <v>25.6641408979471</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.48970618157513</v>
+        <v>15.07292763197775</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.12755846638592</v>
+        <v>19.53687600031807</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.987331116688965</v>
+        <v>15.47634068104007</v>
       </c>
       <c r="C23">
-        <v>6.703231835277422</v>
+        <v>11.70111652182021</v>
       </c>
       <c r="D23">
-        <v>6.621688300160625</v>
+        <v>9.373287055560677</v>
       </c>
       <c r="E23">
-        <v>13.32660701029592</v>
+        <v>18.8615782492065</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.03201244563567</v>
+        <v>57.1964157225896</v>
       </c>
       <c r="H23">
-        <v>18.21437955143573</v>
+        <v>15.68176030263217</v>
       </c>
       <c r="I23">
-        <v>27.27059455459299</v>
+        <v>25.39283779762306</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.42234521405436</v>
+        <v>14.79483512453384</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.04955792078513</v>
+        <v>19.15299593475376</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.629746053889795</v>
+        <v>14.29918240360429</v>
       </c>
       <c r="C24">
-        <v>6.352518877664795</v>
+        <v>10.76240361956628</v>
       </c>
       <c r="D24">
-        <v>6.40883610057989</v>
+        <v>8.623301338540413</v>
       </c>
       <c r="E24">
-        <v>12.89426395239892</v>
+        <v>17.28177680471542</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>47.09116036433071</v>
+        <v>53.743621589681</v>
       </c>
       <c r="H24">
-        <v>18.13275548411651</v>
+        <v>15.10844288215583</v>
       </c>
       <c r="I24">
-        <v>27.08692873906339</v>
+        <v>24.38306831146681</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.16838728102551</v>
+        <v>13.70711508754346</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.75760107984848</v>
+        <v>17.6545997272577</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.239687445789253</v>
+        <v>12.94051592440265</v>
       </c>
       <c r="C25">
-        <v>5.957926378280864</v>
+        <v>9.685193216571951</v>
       </c>
       <c r="D25">
-        <v>6.177725292961809</v>
+        <v>7.759204255618464</v>
       </c>
       <c r="E25">
-        <v>12.42547312492298</v>
+        <v>15.4890918688401</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>46.09381880310688</v>
+        <v>49.98410515309467</v>
       </c>
       <c r="H25">
-        <v>18.05502100913925</v>
+        <v>14.51535105155403</v>
       </c>
       <c r="I25">
-        <v>26.90399581477271</v>
+        <v>23.33037094712597</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.898597352878818</v>
+        <v>12.45703227870231</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.45170375847704</v>
+        <v>15.93744266428152</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.86037067423925</v>
+        <v>24.66231670261983</v>
       </c>
       <c r="C2">
-        <v>8.832854358064166</v>
+        <v>22.21050986606813</v>
       </c>
       <c r="D2">
-        <v>7.073135082199951</v>
+        <v>7.210702047462137</v>
       </c>
       <c r="E2">
-        <v>14.2527895619985</v>
+        <v>29.56346231341837</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.19130167311884</v>
+        <v>46.67091617122975</v>
       </c>
       <c r="H2">
-        <v>14.09965207719229</v>
+        <v>3.374013477099094</v>
       </c>
       <c r="I2">
-        <v>22.58585272363768</v>
+        <v>3.645690467434659</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.28830569951582</v>
       </c>
       <c r="K2">
-        <v>11.46781384462651</v>
+        <v>18.44012724170237</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.581040661333</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.58091161759454</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07716441778108</v>
+        <v>22.98147025297899</v>
       </c>
       <c r="C3">
-        <v>8.216686459114744</v>
+        <v>20.69003282519747</v>
       </c>
       <c r="D3">
-        <v>6.575977265018472</v>
+        <v>6.705485112237939</v>
       </c>
       <c r="E3">
-        <v>13.38214500227731</v>
+        <v>27.58089659391112</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.28875886539127</v>
+        <v>44.02351912502034</v>
       </c>
       <c r="H3">
-        <v>13.83078775650879</v>
+        <v>3.059363345171771</v>
       </c>
       <c r="I3">
-        <v>22.10027721126939</v>
+        <v>3.389115728793076</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.8307586822748</v>
       </c>
       <c r="K3">
-        <v>10.75346423884624</v>
+        <v>17.93585781753417</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.60210599939499</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.76271183524843</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57062222863963</v>
+        <v>21.88617771999447</v>
       </c>
       <c r="C4">
-        <v>7.818867062068764</v>
+        <v>19.70804918813286</v>
       </c>
       <c r="D4">
-        <v>6.265659372271576</v>
+        <v>6.378609697877236</v>
       </c>
       <c r="E4">
-        <v>12.83201945989166</v>
+        <v>26.2982201373933</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.11838100897306</v>
+        <v>42.33597299779892</v>
       </c>
       <c r="H4">
-        <v>13.67199214343845</v>
+        <v>2.860403941033816</v>
       </c>
       <c r="I4">
-        <v>21.81152725848354</v>
+        <v>3.227968980057506</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.54661207963732</v>
       </c>
       <c r="K4">
-        <v>10.29293787405974</v>
+        <v>17.62474527613128</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.97095816923534</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>11.87487241719721</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35770069738909</v>
+        <v>21.41591116529304</v>
       </c>
       <c r="C5">
-        <v>7.651784751885278</v>
+        <v>19.30194888841141</v>
       </c>
       <c r="D5">
-        <v>6.151666033336413</v>
+        <v>6.24113144312084</v>
       </c>
       <c r="E5">
-        <v>12.60407887829122</v>
+        <v>25.7584982326183</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.64136661613893</v>
+        <v>41.60625970756585</v>
       </c>
       <c r="H5">
-        <v>13.60885646155921</v>
+        <v>2.777555397141085</v>
       </c>
       <c r="I5">
-        <v>21.69623028351532</v>
+        <v>3.161418766578024</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.42450143238239</v>
       </c>
       <c r="K5">
-        <v>10.09973865551155</v>
+        <v>17.48612402226556</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.70611597313534</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>11.91996031698091</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.32195120257462</v>
+        <v>21.3271995903473</v>
       </c>
       <c r="C6">
-        <v>7.623738944528466</v>
+        <v>19.24153465843349</v>
       </c>
       <c r="D6">
-        <v>6.132599052719319</v>
+        <v>6.218074526238597</v>
       </c>
       <c r="E6">
-        <v>12.56600782380465</v>
+        <v>25.66731380041797</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.56216941414849</v>
+        <v>41.45129967902339</v>
       </c>
       <c r="H6">
-        <v>13.59846773335787</v>
+        <v>2.763371315790509</v>
       </c>
       <c r="I6">
-        <v>21.67722873228565</v>
+        <v>3.150562584655564</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.39731829497249</v>
       </c>
       <c r="K6">
-        <v>10.06732366010652</v>
+        <v>17.44898037765188</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.66167528577864</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>11.92650981101394</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.56777708160999</v>
+        <v>21.85416879522275</v>
       </c>
       <c r="C7">
-        <v>7.816633931287813</v>
+        <v>19.72328284731694</v>
       </c>
       <c r="D7">
-        <v>6.26413136438293</v>
+        <v>6.37664976111028</v>
       </c>
       <c r="E7">
-        <v>12.82896036155326</v>
+        <v>26.28949401443488</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.11194745237274</v>
+        <v>42.23811198414516</v>
       </c>
       <c r="H7">
-        <v>13.67113430644114</v>
+        <v>2.858385571079053</v>
       </c>
       <c r="I7">
-        <v>21.80996271274002</v>
+        <v>3.22742371263627</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.52641561730652</v>
       </c>
       <c r="K7">
-        <v>10.29035473480272</v>
+        <v>17.58464956955568</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.96741746525908</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>11.87295255512918</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59561162187103</v>
+        <v>24.06436421539942</v>
       </c>
       <c r="C8">
-        <v>8.624403322113105</v>
+        <v>21.72131122706484</v>
       </c>
       <c r="D8">
-        <v>6.905053445666754</v>
+        <v>7.039760280346168</v>
       </c>
       <c r="E8">
-        <v>13.95589145507399</v>
+        <v>28.89142095358273</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.53602992373451</v>
+        <v>45.66230181163477</v>
       </c>
       <c r="H8">
-        <v>14.00563882811808</v>
+        <v>3.265526534742443</v>
       </c>
       <c r="I8">
-        <v>22.41648121345333</v>
+        <v>3.557849012951585</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.10767072495597</v>
       </c>
       <c r="K8">
-        <v>11.22603756007657</v>
+        <v>18.21752504010899</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.24969430489227</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.64044564556794</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.41037000512857</v>
+        <v>27.94351260292895</v>
       </c>
       <c r="C9">
-        <v>10.05702205370964</v>
+        <v>25.22825106460648</v>
       </c>
       <c r="D9">
-        <v>8.05786340801267</v>
+        <v>8.210250144585201</v>
       </c>
       <c r="E9">
-        <v>16.10088071336987</v>
+        <v>33.48396202497411</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.25488432161006</v>
+        <v>52.01410306279028</v>
       </c>
       <c r="H9">
-        <v>14.7118341643717</v>
+        <v>4.022023172362091</v>
       </c>
       <c r="I9">
-        <v>23.6801942896785</v>
+        <v>4.179742725938062</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.24969819121097</v>
       </c>
       <c r="K9">
-        <v>12.88864779803909</v>
+        <v>19.50990451693907</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.52984356245092</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.19127107549292</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.62551964264451</v>
+        <v>30.3995618447189</v>
       </c>
       <c r="C10">
-        <v>11.02209974531335</v>
+        <v>27.46111048252391</v>
       </c>
       <c r="D10">
-        <v>8.831081200564753</v>
+        <v>8.992027781341871</v>
       </c>
       <c r="E10">
-        <v>17.71788719673979</v>
+        <v>35.67110781002136</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.68365242004356</v>
+        <v>55.90298584735349</v>
       </c>
       <c r="H10">
-        <v>15.26201250695874</v>
+        <v>4.511542193518987</v>
       </c>
       <c r="I10">
-        <v>24.65420845222563</v>
+        <v>4.608747610583482</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.96460192071651</v>
       </c>
       <c r="K10">
-        <v>14.00824502834527</v>
+        <v>20.29088833666468</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.06896721790541</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>10.85751514274386</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.15374509531808</v>
+        <v>30.6630925186239</v>
       </c>
       <c r="C11">
-        <v>11.44332072568561</v>
+        <v>27.35974926130399</v>
       </c>
       <c r="D11">
-        <v>9.167619702760975</v>
+        <v>9.315067561222097</v>
       </c>
       <c r="E11">
-        <v>18.42678265307432</v>
+        <v>29.11824683308356</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.23343003841322</v>
+        <v>53.87180253472182</v>
       </c>
       <c r="H11">
-        <v>15.51936472304139</v>
+        <v>4.836710798276951</v>
       </c>
       <c r="I11">
-        <v>25.10747352120781</v>
+        <v>4.682395906185208</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.44634228890104</v>
       </c>
       <c r="K11">
-        <v>14.49634440479535</v>
+        <v>19.38227537407525</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.74133697259301</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>10.71100005819035</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.35033887059188</v>
+        <v>30.41807015412867</v>
       </c>
       <c r="C12">
-        <v>11.60037376060311</v>
+        <v>26.80050369025872</v>
       </c>
       <c r="D12">
-        <v>9.292943146877837</v>
+        <v>9.42881447056409</v>
       </c>
       <c r="E12">
-        <v>18.69158177682563</v>
+        <v>23.20635496848992</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.81882875629142</v>
+        <v>51.43549851723835</v>
       </c>
       <c r="H12">
-        <v>15.61786496950154</v>
+        <v>5.574560930034616</v>
       </c>
       <c r="I12">
-        <v>25.28061742364177</v>
+        <v>4.664483363160517</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.87422142784251</v>
       </c>
       <c r="K12">
-        <v>14.67821270026586</v>
+        <v>18.49262718150645</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.99211240561482</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>10.69206048870033</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.3081499539054</v>
+        <v>29.73149920090908</v>
       </c>
       <c r="C13">
-        <v>11.56665695165823</v>
+        <v>25.86351243475621</v>
       </c>
       <c r="D13">
-        <v>9.266045457003729</v>
+        <v>9.39199450865274</v>
       </c>
       <c r="E13">
-        <v>18.63471129851128</v>
+        <v>17.33718409947273</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.69281744318256</v>
+        <v>48.35703203597862</v>
       </c>
       <c r="H13">
-        <v>15.59660405147524</v>
+        <v>6.526039296043952</v>
       </c>
       <c r="I13">
-        <v>25.2432601528427</v>
+        <v>4.575847524601167</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.1894737293319</v>
       </c>
       <c r="K13">
-        <v>14.63917445449953</v>
+        <v>17.49693029320607</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.93827133265834</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>10.76184085190965</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.16998721153969</v>
+        <v>29.0374621721304</v>
       </c>
       <c r="C14">
-        <v>11.45629012231474</v>
+        <v>25.03156732238943</v>
       </c>
       <c r="D14">
-        <v>9.17797213407858</v>
+        <v>9.298153653456904</v>
       </c>
       <c r="E14">
-        <v>18.44863968193273</v>
+        <v>13.33564192913363</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.28162040847292</v>
+        <v>45.85171572092156</v>
       </c>
       <c r="H14">
-        <v>15.52744721714063</v>
+        <v>7.283605981082671</v>
       </c>
       <c r="I14">
-        <v>25.12168777781648</v>
+        <v>4.483659280459385</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.64964952647453</v>
       </c>
       <c r="K14">
-        <v>14.51136569476368</v>
+        <v>16.73861404925801</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.76204433188484</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>10.85193292878495</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.08491440727202</v>
+        <v>28.76281366237157</v>
       </c>
       <c r="C15">
-        <v>11.38837092843653</v>
+        <v>24.74956068157785</v>
       </c>
       <c r="D15">
-        <v>9.123751229429331</v>
+        <v>9.242719792626536</v>
       </c>
       <c r="E15">
-        <v>18.33419699250537</v>
+        <v>12.37301261136269</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.02955983301931</v>
+        <v>45.06926594316131</v>
       </c>
       <c r="H15">
-        <v>15.48522400224626</v>
+        <v>7.456625910775521</v>
       </c>
       <c r="I15">
-        <v>25.04741829355498</v>
+        <v>4.445305691413245</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.48837205884773</v>
       </c>
       <c r="K15">
-        <v>14.43269584389669</v>
+        <v>16.51963995338809</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.65360561236724</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>10.88878308748468</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.59051287471491</v>
+        <v>27.83469042312714</v>
       </c>
       <c r="C16">
-        <v>10.9942225916125</v>
+        <v>23.96256756051041</v>
       </c>
       <c r="D16">
-        <v>8.808787541019448</v>
+        <v>8.928662193772936</v>
       </c>
       <c r="E16">
-        <v>17.6710382102732</v>
+        <v>12.1437955096167</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.58216486058887</v>
+        <v>43.79634427587863</v>
       </c>
       <c r="H16">
-        <v>15.24533855075331</v>
+        <v>7.158234298732748</v>
       </c>
       <c r="I16">
-        <v>24.62479421941444</v>
+        <v>4.283878728329444</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.28468233826851</v>
       </c>
       <c r="K16">
-        <v>13.97592682779045</v>
+        <v>16.33554457272009</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.02448037030081</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.00400267713011</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.28099106475383</v>
+        <v>27.4935898211221</v>
       </c>
       <c r="C17">
-        <v>10.74793871225748</v>
+        <v>23.81164958022919</v>
       </c>
       <c r="D17">
-        <v>8.611721734027364</v>
+        <v>8.734703517822563</v>
       </c>
       <c r="E17">
-        <v>17.25750697781336</v>
+        <v>14.13029693550972</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.69162336649467</v>
+        <v>44.20567776938801</v>
       </c>
       <c r="H17">
-        <v>15.10000604799349</v>
+        <v>6.471738972868867</v>
       </c>
       <c r="I17">
-        <v>24.36815700889788</v>
+        <v>4.207694374926101</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.42319190171948</v>
       </c>
       <c r="K17">
-        <v>13.69033848041283</v>
+        <v>16.60477109727727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.6315237718563</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.04549528161837</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.10064498575193</v>
+        <v>27.65417024580005</v>
       </c>
       <c r="C18">
-        <v>10.60460070449603</v>
+        <v>24.19600895354595</v>
       </c>
       <c r="D18">
-        <v>8.496939315397809</v>
+        <v>8.626272813898186</v>
       </c>
       <c r="E18">
-        <v>17.01712979816488</v>
+        <v>18.60172345452413</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.17846343768348</v>
+        <v>46.18018617369223</v>
       </c>
       <c r="H18">
-        <v>15.01707810745709</v>
+        <v>5.468196443717139</v>
       </c>
       <c r="I18">
-        <v>24.22150104579913</v>
+        <v>4.200072702049802</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.88306837918065</v>
       </c>
       <c r="K18">
-        <v>13.52407328664773</v>
+        <v>17.32074973723104</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.40287973238073</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.04095060206046</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.03918210375931</v>
+        <v>28.17130805770932</v>
       </c>
       <c r="C19">
-        <v>10.55577698046965</v>
+        <v>25.01746036110748</v>
       </c>
       <c r="D19">
-        <v>8.457827399684142</v>
+        <v>8.596633148880242</v>
       </c>
       <c r="E19">
-        <v>16.93530301039565</v>
+        <v>24.84764524290472</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.00455674716681</v>
+        <v>49.10128364493811</v>
       </c>
       <c r="H19">
-        <v>14.98911335037825</v>
+        <v>4.554503120794776</v>
       </c>
       <c r="I19">
-        <v>24.17200901491011</v>
+        <v>4.25877092513551</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.53204183698302</v>
       </c>
       <c r="K19">
-        <v>13.46743242611152</v>
+        <v>18.27913127370324</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.32500923601115</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.02051850027507</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.31417935244875</v>
+        <v>29.70713112449384</v>
       </c>
       <c r="C20">
-        <v>10.77432940527089</v>
+        <v>26.93124277046933</v>
       </c>
       <c r="D20">
-        <v>8.632847794806951</v>
+        <v>8.791196595788835</v>
       </c>
       <c r="E20">
-        <v>17.30178807418154</v>
+        <v>35.0640400628049</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.78652127609812</v>
+        <v>54.66297636415649</v>
       </c>
       <c r="H20">
-        <v>15.11540809371347</v>
+        <v>4.379136039119262</v>
       </c>
       <c r="I20">
-        <v>24.39537742587207</v>
+        <v>4.497354578349575</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.723915430582</v>
       </c>
       <c r="K20">
-        <v>13.72094649738215</v>
+        <v>19.97395357227603</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.67362533475281</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>10.93958825452074</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.21066132880381</v>
+        <v>31.65749599101753</v>
       </c>
       <c r="C21">
-        <v>11.48877325541588</v>
+        <v>28.76445846885613</v>
       </c>
       <c r="D21">
-        <v>9.203898258468419</v>
+        <v>9.37100353281266</v>
       </c>
       <c r="E21">
-        <v>18.50339067324063</v>
+        <v>38.02861002262176</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.40243856814001</v>
+        <v>58.26433200892905</v>
       </c>
       <c r="H21">
-        <v>15.54773156591257</v>
+        <v>4.816175519517564</v>
       </c>
       <c r="I21">
-        <v>25.15735535819906</v>
+        <v>4.845385201493885</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.42394291960737</v>
       </c>
       <c r="K21">
-        <v>14.54898593389077</v>
+        <v>20.81294539538077</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.81390923764467</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.68763412613682</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.77660175233371</v>
+        <v>32.85838887043651</v>
       </c>
       <c r="C22">
-        <v>11.94145474402959</v>
+        <v>29.84017497644266</v>
       </c>
       <c r="D22">
-        <v>9.564813429034603</v>
+        <v>9.736380023994789</v>
       </c>
       <c r="E22">
-        <v>19.26757282966703</v>
+        <v>39.45884061769928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.10358830396275</v>
+        <v>60.42438389478145</v>
       </c>
       <c r="H22">
-        <v>15.83640172186431</v>
+        <v>5.077461007420438</v>
       </c>
       <c r="I22">
-        <v>25.6641408979471</v>
+        <v>5.063862645987514</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.84791170192416</v>
       </c>
       <c r="K22">
-        <v>15.07292763197775</v>
+        <v>21.32874330348148</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.53687600031807</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.52312932038171</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.47634068104007</v>
+        <v>32.24421914676931</v>
       </c>
       <c r="C23">
-        <v>11.70111652182021</v>
+        <v>29.25227873597091</v>
       </c>
       <c r="D23">
-        <v>9.373287055560677</v>
+        <v>9.542721166455419</v>
       </c>
       <c r="E23">
-        <v>18.8615782492065</v>
+        <v>38.70181967118247</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.1964157225896</v>
+        <v>59.35438723734278</v>
       </c>
       <c r="H23">
-        <v>15.68176030263217</v>
+        <v>4.939223524603363</v>
       </c>
       <c r="I23">
-        <v>25.39283779762306</v>
+        <v>4.947010666982808</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.64015508040323</v>
       </c>
       <c r="K23">
-        <v>14.79483512453384</v>
+        <v>21.09234227537076</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.15299593475376</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>10.61304279764304</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.29918240360429</v>
+        <v>29.78246799707586</v>
       </c>
       <c r="C24">
-        <v>10.76240361956628</v>
+        <v>26.97607047691827</v>
       </c>
       <c r="D24">
-        <v>8.623301338540413</v>
+        <v>8.783274056447574</v>
       </c>
       <c r="E24">
-        <v>17.28177680471542</v>
+        <v>35.72856247646744</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.743621589681</v>
+        <v>55.07004359758054</v>
       </c>
       <c r="H24">
-        <v>15.10844288215583</v>
+        <v>4.408205645413978</v>
       </c>
       <c r="I24">
-        <v>24.38306831146681</v>
+        <v>4.501985735601231</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.81678500152129</v>
       </c>
       <c r="K24">
-        <v>13.70711508754346</v>
+        <v>20.13361748429661</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.6545997272577</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>10.94867857109456</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.94051592440265</v>
+        <v>26.90751904433809</v>
       </c>
       <c r="C25">
-        <v>9.685193216571951</v>
+        <v>24.34991599359181</v>
       </c>
       <c r="D25">
-        <v>7.759204255618464</v>
+        <v>7.906953125481818</v>
       </c>
       <c r="E25">
-        <v>15.4890918688401</v>
+        <v>32.29288724161597</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.98410515309467</v>
+        <v>50.21556705044065</v>
       </c>
       <c r="H25">
-        <v>14.51535105155403</v>
+        <v>3.820156480157481</v>
       </c>
       <c r="I25">
-        <v>23.33037094712597</v>
+        <v>4.014360447281193</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.91390808337677</v>
       </c>
       <c r="K25">
-        <v>12.45703227870231</v>
+        <v>19.09807435436775</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.93744266428152</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.30903142094144</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.66231670261983</v>
+        <v>23.68466228556603</v>
       </c>
       <c r="C2">
-        <v>22.21050986606813</v>
+        <v>22.87824037582917</v>
       </c>
       <c r="D2">
-        <v>7.210702047462137</v>
+        <v>7.200498048564791</v>
       </c>
       <c r="E2">
-        <v>29.56346231341837</v>
+        <v>29.45359815593657</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.67091617122975</v>
+        <v>42.95448029011867</v>
       </c>
       <c r="H2">
-        <v>3.374013477099094</v>
+        <v>3.307785975411184</v>
       </c>
       <c r="I2">
-        <v>3.645690467434659</v>
+        <v>3.550549184057026</v>
       </c>
       <c r="J2">
-        <v>13.28830569951582</v>
+        <v>13.11782238161315</v>
       </c>
       <c r="K2">
-        <v>18.44012724170237</v>
+        <v>16.96628727936669</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.81907443140369</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.67822361472626</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.58091161759454</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.53969062954761</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.98147025297899</v>
+        <v>22.12411364551504</v>
       </c>
       <c r="C3">
-        <v>20.69003282519747</v>
+        <v>21.28524367756634</v>
       </c>
       <c r="D3">
-        <v>6.705485112237939</v>
+        <v>6.698779319685134</v>
       </c>
       <c r="E3">
-        <v>27.58089659391112</v>
+        <v>27.50301612758693</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.02351912502034</v>
+        <v>40.65282015308389</v>
       </c>
       <c r="H3">
-        <v>3.059363345171771</v>
+        <v>3.012414536775618</v>
       </c>
       <c r="I3">
-        <v>3.389115728793076</v>
+        <v>3.332567098611353</v>
       </c>
       <c r="J3">
-        <v>12.8307586822748</v>
+        <v>12.72205918314374</v>
       </c>
       <c r="K3">
-        <v>17.93585781753417</v>
+        <v>16.63152117628799</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.7574060250548</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.16451142036712</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.76271183524843</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.70092537165769</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.88617771999447</v>
+        <v>21.1059897340907</v>
       </c>
       <c r="C4">
-        <v>19.70804918813286</v>
+        <v>20.25484992253795</v>
       </c>
       <c r="D4">
-        <v>6.378609697877236</v>
+        <v>6.373860614034332</v>
       </c>
       <c r="E4">
-        <v>26.2982201373933</v>
+        <v>26.24003084027139</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.33597299779892</v>
+        <v>39.18851350541738</v>
       </c>
       <c r="H4">
-        <v>2.860403941033816</v>
+        <v>2.825381007537838</v>
       </c>
       <c r="I4">
-        <v>3.227968980057506</v>
+        <v>3.195595464350927</v>
       </c>
       <c r="J4">
-        <v>12.54661207963732</v>
+        <v>12.47319117606363</v>
       </c>
       <c r="K4">
-        <v>17.62474527613128</v>
+        <v>16.42483136918059</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.71381200431462</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.86387101660082</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.87487241719721</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.80111915954252</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.41591116529304</v>
+        <v>20.66841879515081</v>
       </c>
       <c r="C5">
-        <v>19.30194888841141</v>
+        <v>19.82786139420829</v>
       </c>
       <c r="D5">
-        <v>6.24113144312084</v>
+        <v>6.237141152860161</v>
       </c>
       <c r="E5">
-        <v>25.7584982326183</v>
+        <v>25.70843655271982</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.60625970756585</v>
+        <v>38.55367920040903</v>
       </c>
       <c r="H5">
-        <v>2.777555397141085</v>
+        <v>2.747455027893303</v>
       </c>
       <c r="I5">
-        <v>3.161418766578024</v>
+        <v>3.139332787868915</v>
       </c>
       <c r="J5">
-        <v>12.42450143238239</v>
+        <v>12.36517693594283</v>
       </c>
       <c r="K5">
-        <v>17.48612402226556</v>
+        <v>16.32978503458581</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.68636385097849</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.737718894813852</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.91996031698091</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.8419827276485</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.3271995903473</v>
+        <v>20.58566612082434</v>
       </c>
       <c r="C6">
-        <v>19.24153465843349</v>
+        <v>19.76368418153045</v>
       </c>
       <c r="D6">
-        <v>6.218074526238597</v>
+        <v>6.21531103508794</v>
       </c>
       <c r="E6">
-        <v>25.66731380041797</v>
+        <v>25.61867566864643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.45129967902339</v>
+        <v>38.41613041618385</v>
       </c>
       <c r="H6">
-        <v>2.763371315790509</v>
+        <v>2.734130001053575</v>
       </c>
       <c r="I6">
-        <v>3.150562584655564</v>
+        <v>3.130603890770335</v>
       </c>
       <c r="J6">
-        <v>12.39731829497249</v>
+        <v>12.34079420554472</v>
       </c>
       <c r="K6">
-        <v>17.44898037765188</v>
+        <v>16.30110364368673</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.67168299714372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.707342309479831</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.92650981101394</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.84845065420781</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.85416879522275</v>
+        <v>21.06418057296654</v>
       </c>
       <c r="C7">
-        <v>19.72328284731694</v>
+        <v>20.24876982036861</v>
       </c>
       <c r="D7">
-        <v>6.37664976111028</v>
+        <v>6.371840641396977</v>
       </c>
       <c r="E7">
-        <v>26.28949401443488</v>
+        <v>26.23056728176578</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.23811198414516</v>
+        <v>39.17543165056879</v>
       </c>
       <c r="H7">
-        <v>2.858385571079053</v>
+        <v>2.822907534407109</v>
       </c>
       <c r="I7">
-        <v>3.22742371263627</v>
+        <v>3.195295106839645</v>
       </c>
       <c r="J7">
-        <v>12.52641561730652</v>
+        <v>12.38568064878964</v>
       </c>
       <c r="K7">
-        <v>17.58464956955568</v>
+        <v>16.37250524753662</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.67407710235906</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.823187395194768</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.87295255512918</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.80057445262794</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.06436421539942</v>
+        <v>23.09383667932703</v>
       </c>
       <c r="C8">
-        <v>21.72131122706484</v>
+        <v>22.30170665073526</v>
       </c>
       <c r="D8">
-        <v>7.039760280346168</v>
+        <v>7.030532004045899</v>
       </c>
       <c r="E8">
-        <v>28.89142095358273</v>
+        <v>28.78962109661447</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.66230181163477</v>
+        <v>42.3152395794837</v>
       </c>
       <c r="H8">
-        <v>3.265526534742443</v>
+        <v>3.204108176282958</v>
       </c>
       <c r="I8">
-        <v>3.557849012951585</v>
+        <v>3.474226313260727</v>
       </c>
       <c r="J8">
-        <v>13.10767072495597</v>
+        <v>12.74045244584169</v>
       </c>
       <c r="K8">
-        <v>18.21752504010899</v>
+        <v>16.75421132505867</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.72678465576492</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.42179052945995</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.64044564556794</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.59411453690829</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.94351260292895</v>
+        <v>26.6839916744828</v>
       </c>
       <c r="C9">
-        <v>25.22825106460648</v>
+        <v>25.96075000902503</v>
       </c>
       <c r="D9">
-        <v>8.210250144585201</v>
+        <v>8.190845818824101</v>
       </c>
       <c r="E9">
-        <v>33.48396202497411</v>
+        <v>33.3004075283906</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.01410306279028</v>
+        <v>47.89713385386472</v>
       </c>
       <c r="H9">
-        <v>4.022023172362091</v>
+        <v>3.912113964695166</v>
       </c>
       <c r="I9">
-        <v>4.179742725938062</v>
+        <v>4.000167395877193</v>
       </c>
       <c r="J9">
-        <v>14.24969819121097</v>
+        <v>13.66890275471671</v>
       </c>
       <c r="K9">
-        <v>19.50990451693907</v>
+        <v>17.61325741942802</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.87560259473386</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.78457066807724</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.19127107549292</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.19951557355087</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.3995618447189</v>
+        <v>28.90347328349003</v>
       </c>
       <c r="C10">
-        <v>27.46111048252391</v>
+        <v>28.18791541103747</v>
       </c>
       <c r="D10">
-        <v>8.992027781341871</v>
+        <v>8.963352654513159</v>
       </c>
       <c r="E10">
-        <v>35.67110781002136</v>
+        <v>35.4213956367608</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.90298584735349</v>
+        <v>51.68036362130775</v>
       </c>
       <c r="H10">
-        <v>4.511542193518987</v>
+        <v>4.364303572107307</v>
       </c>
       <c r="I10">
-        <v>4.608747610583482</v>
+        <v>4.358267916803558</v>
       </c>
       <c r="J10">
-        <v>14.96460192071651</v>
+        <v>13.88216290178164</v>
       </c>
       <c r="K10">
-        <v>20.29088833666468</v>
+        <v>18.02491828546336</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.80897553447481</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.6408655183165</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>10.85751514274386</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>10.92297363594237</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.6630925186239</v>
+        <v>29.08650199201757</v>
       </c>
       <c r="C11">
-        <v>27.35974926130399</v>
+        <v>27.86237011801566</v>
       </c>
       <c r="D11">
-        <v>9.315067561222097</v>
+        <v>9.283226704153904</v>
       </c>
       <c r="E11">
-        <v>29.11824683308356</v>
+        <v>28.83632568754209</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.87180253472182</v>
+        <v>50.58372426767215</v>
       </c>
       <c r="H11">
-        <v>4.836710798276951</v>
+        <v>4.69615755330672</v>
       </c>
       <c r="I11">
-        <v>4.682395906185208</v>
+        <v>4.415366249073587</v>
       </c>
       <c r="J11">
-        <v>14.44634228890104</v>
+        <v>12.67213809735317</v>
       </c>
       <c r="K11">
-        <v>19.38227537407525</v>
+        <v>17.02747125324717</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.9542485527574</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.05732233182968</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>10.71100005819035</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>10.89788480376247</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.41807015412867</v>
+        <v>28.85099428676372</v>
       </c>
       <c r="C12">
-        <v>26.80050369025872</v>
+        <v>27.16941832905562</v>
       </c>
       <c r="D12">
-        <v>9.42881447056409</v>
+        <v>9.396608665891963</v>
       </c>
       <c r="E12">
-        <v>23.20635496848992</v>
+        <v>22.90000937509752</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>51.43549851723835</v>
+        <v>48.73517496814438</v>
       </c>
       <c r="H12">
-        <v>5.574560930034616</v>
+        <v>5.458395776039525</v>
       </c>
       <c r="I12">
-        <v>4.664483363160517</v>
+        <v>4.39811920698999</v>
       </c>
       <c r="J12">
-        <v>13.87422142784251</v>
+        <v>11.84506625671958</v>
       </c>
       <c r="K12">
-        <v>18.49262718150645</v>
+        <v>16.19215989955812</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.32595099804022</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.45204238543156</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.69206048870033</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>10.96211234489695</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.73149920090908</v>
+        <v>28.26732116783043</v>
       </c>
       <c r="C13">
-        <v>25.86351243475621</v>
+        <v>26.19261379543354</v>
       </c>
       <c r="D13">
-        <v>9.39199450865274</v>
+        <v>9.361825748520456</v>
       </c>
       <c r="E13">
-        <v>17.33718409947273</v>
+        <v>17.00517427164224</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>48.35703203597862</v>
+        <v>45.87214183767246</v>
       </c>
       <c r="H13">
-        <v>6.526039296043952</v>
+        <v>6.437440846613008</v>
       </c>
       <c r="I13">
-        <v>4.575847524601167</v>
+        <v>4.326418921888482</v>
       </c>
       <c r="J13">
-        <v>13.1894737293319</v>
+        <v>11.35998574911156</v>
       </c>
       <c r="K13">
-        <v>17.49693029320607</v>
+        <v>15.405284929614</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.80766366704568</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.7721816159914</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>10.76184085190965</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.07978550355869</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.0374621721304</v>
+        <v>27.68781763843328</v>
       </c>
       <c r="C14">
-        <v>25.03156732238943</v>
+        <v>25.3720729888681</v>
       </c>
       <c r="D14">
-        <v>9.298153653456904</v>
+        <v>9.270403657898557</v>
       </c>
       <c r="E14">
-        <v>13.33564192913363</v>
+        <v>12.97565260795939</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.85171572092156</v>
+        <v>43.35787559212555</v>
       </c>
       <c r="H14">
-        <v>7.283605981082671</v>
+        <v>7.2125246799366</v>
       </c>
       <c r="I14">
-        <v>4.483659280459385</v>
+        <v>4.253314121408006</v>
       </c>
       <c r="J14">
-        <v>12.64964952647453</v>
+        <v>11.1538772338665</v>
       </c>
       <c r="K14">
-        <v>16.73861404925801</v>
+        <v>14.86241306436242</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.48225969650432</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.25034607088334</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10.85193292878495</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.18339812555</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.76281366237157</v>
+        <v>27.46024193245554</v>
       </c>
       <c r="C15">
-        <v>24.74956068157785</v>
+        <v>25.10968793466284</v>
       </c>
       <c r="D15">
-        <v>9.242719792626536</v>
+        <v>9.216046893902515</v>
       </c>
       <c r="E15">
-        <v>12.37301261136269</v>
+        <v>12.00828492652049</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.06926594316131</v>
+        <v>42.50627021675356</v>
       </c>
       <c r="H15">
-        <v>7.456625910775521</v>
+        <v>7.390323122617638</v>
       </c>
       <c r="I15">
-        <v>4.445305691413245</v>
+        <v>4.223577084389781</v>
       </c>
       <c r="J15">
-        <v>12.48837205884773</v>
+        <v>11.15637708263434</v>
       </c>
       <c r="K15">
-        <v>16.51963995338809</v>
+        <v>14.72623041707959</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.41357314440346</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.09656434745286</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>10.88878308748468</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.21633583624005</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.83469042312714</v>
+        <v>26.69458618005604</v>
       </c>
       <c r="C16">
-        <v>23.96256756051041</v>
+        <v>24.46360434874316</v>
       </c>
       <c r="D16">
-        <v>8.928662193772936</v>
+        <v>8.90646200114989</v>
       </c>
       <c r="E16">
-        <v>12.1437955096167</v>
+        <v>11.82940703869808</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.79634427587863</v>
+        <v>40.68179343342447</v>
       </c>
       <c r="H16">
-        <v>7.158234298732748</v>
+        <v>7.101291298888334</v>
       </c>
       <c r="I16">
-        <v>4.283878728329444</v>
+        <v>4.09570026218096</v>
       </c>
       <c r="J16">
-        <v>12.28468233826851</v>
+        <v>11.63539341265573</v>
       </c>
       <c r="K16">
-        <v>16.33554457272009</v>
+        <v>14.78809042892274</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.57815792815989</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.933463448277829</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.00400267713011</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.27032233857962</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.4935898211221</v>
+        <v>26.40288933620666</v>
       </c>
       <c r="C17">
-        <v>23.81164958022919</v>
+        <v>24.39336072600002</v>
       </c>
       <c r="D17">
-        <v>8.734703517822563</v>
+        <v>8.714495761389095</v>
       </c>
       <c r="E17">
-        <v>14.13029693550972</v>
+        <v>13.86680937953147</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.20567776938801</v>
+        <v>40.76822209581849</v>
       </c>
       <c r="H17">
-        <v>6.471738972868867</v>
+        <v>6.413987406499842</v>
       </c>
       <c r="I17">
-        <v>4.207694374926101</v>
+        <v>4.034390637216066</v>
       </c>
       <c r="J17">
-        <v>12.42319190171948</v>
+        <v>12.03927343317009</v>
       </c>
       <c r="K17">
-        <v>16.60477109727727</v>
+        <v>15.1099611054917</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.87336084837795</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.07497251444036</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.04549528161837</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.26669861596091</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.65417024580005</v>
+        <v>26.53713742710447</v>
       </c>
       <c r="C18">
-        <v>24.19600895354595</v>
+        <v>24.84805167540653</v>
       </c>
       <c r="D18">
-        <v>8.626272813898186</v>
+        <v>8.606406858728102</v>
       </c>
       <c r="E18">
-        <v>18.60172345452413</v>
+        <v>18.37828561590636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.18018617369223</v>
+        <v>42.44220218738702</v>
       </c>
       <c r="H18">
-        <v>5.468196443717139</v>
+        <v>5.398750606384225</v>
       </c>
       <c r="I18">
-        <v>4.200072702049802</v>
+        <v>4.02686283678774</v>
       </c>
       <c r="J18">
-        <v>12.88306837918065</v>
+        <v>12.55936568855573</v>
       </c>
       <c r="K18">
-        <v>17.32074973723104</v>
+        <v>15.74773569158961</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.35960528830404</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.53411708790233</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.04095060206046</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.21566595800181</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.17130805770932</v>
+        <v>26.97856201793937</v>
       </c>
       <c r="C19">
-        <v>25.01746036110748</v>
+        <v>25.73755291707291</v>
       </c>
       <c r="D19">
-        <v>8.596633148880242</v>
+        <v>8.575796626779573</v>
       </c>
       <c r="E19">
-        <v>24.84764524290472</v>
+        <v>24.64111700404552</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.10128364493811</v>
+        <v>45.05258336292595</v>
       </c>
       <c r="H19">
-        <v>4.554503120794776</v>
+        <v>4.46138747150081</v>
       </c>
       <c r="I19">
-        <v>4.25877092513551</v>
+        <v>4.07568064817052</v>
       </c>
       <c r="J19">
-        <v>13.53204183698302</v>
+        <v>13.15573924845267</v>
       </c>
       <c r="K19">
-        <v>18.27913127370324</v>
+        <v>16.54857161404241</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.93751422030189</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.17272443698073</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.02051850027507</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.14595260933732</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.70713112449384</v>
+        <v>28.30759774653096</v>
       </c>
       <c r="C20">
-        <v>26.93124277046933</v>
+        <v>27.71398581065221</v>
       </c>
       <c r="D20">
-        <v>8.791196595788835</v>
+        <v>8.765518269466471</v>
       </c>
       <c r="E20">
-        <v>35.0640400628049</v>
+        <v>34.83583990791954</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.66297636415649</v>
+        <v>50.25308244090527</v>
       </c>
       <c r="H20">
-        <v>4.379136039119262</v>
+        <v>4.244015087101836</v>
       </c>
       <c r="I20">
-        <v>4.497354578349575</v>
+        <v>4.272022538336248</v>
       </c>
       <c r="J20">
-        <v>14.723915430582</v>
+        <v>13.99294527635637</v>
       </c>
       <c r="K20">
-        <v>19.97395357227603</v>
+        <v>17.86599789326294</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.79168887005899</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.37387417162607</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>10.93958825452074</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>10.99560582788598</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65749599101753</v>
+        <v>29.89976962719835</v>
       </c>
       <c r="C21">
-        <v>28.76445846885613</v>
+        <v>29.26896062739485</v>
       </c>
       <c r="D21">
-        <v>9.37100353281266</v>
+        <v>9.335261530442814</v>
       </c>
       <c r="E21">
-        <v>38.02861002262176</v>
+        <v>37.73019731247062</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.26433200892905</v>
+        <v>54.87114929147807</v>
       </c>
       <c r="H21">
-        <v>4.816175519517564</v>
+        <v>4.640125594318889</v>
       </c>
       <c r="I21">
-        <v>4.845385201493885</v>
+        <v>4.546457140046346</v>
       </c>
       <c r="J21">
-        <v>15.42394291960737</v>
+        <v>13.17896662524907</v>
       </c>
       <c r="K21">
-        <v>20.81294539538077</v>
+        <v>18.11539027052113</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.69314523686931</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.98298139018043</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.68763412613682</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>10.78374375952416</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85838887043651</v>
+        <v>30.86854534987579</v>
       </c>
       <c r="C22">
-        <v>29.84017497644266</v>
+        <v>30.14761219316008</v>
       </c>
       <c r="D22">
-        <v>9.736380023994789</v>
+        <v>9.693577474317847</v>
       </c>
       <c r="E22">
-        <v>39.45884061769928</v>
+        <v>39.11363675620843</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.42438389478145</v>
+        <v>57.76292384141388</v>
       </c>
       <c r="H22">
-        <v>5.077461007420438</v>
+        <v>4.875029267317123</v>
       </c>
       <c r="I22">
-        <v>5.063862645987514</v>
+        <v>4.71631898831912</v>
       </c>
       <c r="J22">
-        <v>15.84791170192416</v>
+        <v>12.56016014782466</v>
       </c>
       <c r="K22">
-        <v>21.32874330348148</v>
+        <v>18.23996286991832</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.59991846163997</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.3508111524397</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.52312932038171</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.65203134608854</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.24421914676931</v>
+        <v>30.3984856962044</v>
       </c>
       <c r="C23">
-        <v>29.25227873597091</v>
+        <v>29.70346446289626</v>
       </c>
       <c r="D23">
-        <v>9.542721166455419</v>
+        <v>9.503949818447774</v>
       </c>
       <c r="E23">
-        <v>38.70181967118247</v>
+        <v>38.38334481673986</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.35438723734278</v>
+        <v>56.14150754786572</v>
       </c>
       <c r="H23">
-        <v>4.939223524603363</v>
+        <v>4.751905812319125</v>
       </c>
       <c r="I23">
-        <v>4.947010666982808</v>
+        <v>4.625885569319153</v>
       </c>
       <c r="J23">
-        <v>15.64015508040323</v>
+        <v>13.05749748878013</v>
       </c>
       <c r="K23">
-        <v>21.09234227537076</v>
+        <v>18.24611362539855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.69970401845234</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.21314927597367</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.61304279764304</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.71914912918344</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.78246799707586</v>
+        <v>28.37526071931003</v>
       </c>
       <c r="C24">
-        <v>26.97607047691827</v>
+        <v>27.76798097699379</v>
       </c>
       <c r="D24">
-        <v>8.783274056447574</v>
+        <v>8.757479881643022</v>
       </c>
       <c r="E24">
-        <v>35.72856247646744</v>
+        <v>35.49975341053066</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.07004359758054</v>
+        <v>50.61532381693794</v>
       </c>
       <c r="H24">
-        <v>4.408205645413978</v>
+        <v>4.272148165108133</v>
       </c>
       <c r="I24">
-        <v>4.501985735601231</v>
+        <v>4.273470828489144</v>
       </c>
       <c r="J24">
-        <v>14.81678500152129</v>
+        <v>14.08754894121008</v>
       </c>
       <c r="K24">
-        <v>20.13361748429661</v>
+        <v>18.00796846108937</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.89653286047763</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.4830804550227</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>10.94867857109456</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>10.99296832731186</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.90751904433809</v>
+        <v>25.7394290374529</v>
       </c>
       <c r="C25">
-        <v>24.34991599359181</v>
+        <v>25.06799015286466</v>
       </c>
       <c r="D25">
-        <v>7.906953125481818</v>
+        <v>7.890703313165901</v>
       </c>
       <c r="E25">
-        <v>32.29288724161597</v>
+        <v>32.13347617632539</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.21556705044065</v>
+        <v>46.20636927117911</v>
       </c>
       <c r="H25">
-        <v>3.820156480157481</v>
+        <v>3.724394963779418</v>
       </c>
       <c r="I25">
-        <v>4.014360447281193</v>
+        <v>3.863642359725709</v>
       </c>
       <c r="J25">
-        <v>13.91390808337677</v>
+        <v>13.48525127727611</v>
       </c>
       <c r="K25">
-        <v>19.09807435436775</v>
+        <v>17.34460765179342</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.81335377274317</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.37876799723174</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.30903142094144</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.30542183146674</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
